--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,14 +826,564 @@
           <t>예민: 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>20230221</t>
-        </is>
+      <c r="D16" t="n">
+        <v>20230221</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>22시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>霧散</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>쇄도</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>무산</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>白眼視</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>자의성</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">백안시 </t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>南北</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>서광</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>남북</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>통치</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>결핍</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>與否</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>전진</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>여부</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>禁煙</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>여건</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>금연</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>淡淡</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>도도</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>담담: 차분하고 평온하다</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>收益</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>곡절</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>수익</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>句讀點</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>자의적</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>구두점</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>主導</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>준칙</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>주도</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>支配</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>물의</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>지배</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>銳敏</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>여과</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>예민: 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>指揮</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>가책</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>지휘</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>임대</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>교정 : 학교의 마당이나 운동장</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>校訂</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>校庭: 학교 교, 뜰 정</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>持參</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>조교</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>지참</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>失望</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>시선</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>실망</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>招請</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>소중</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>초청</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>低質</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대처 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>저질</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>昇降</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>희망</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>승강</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>方案</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>격언</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>방안</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230223</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>降伏</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>각축</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>항복</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20230223</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1376,14 +1376,589 @@
           <t>항복</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>20230223</t>
-        </is>
+      <c r="D38" t="n">
+        <v>20230223</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>활력</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>收益</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>소원</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>수익</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>禁斷</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>진단</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>금단</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>不可缺</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>부양책</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>불가결</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>見聞</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>수상</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>견문</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>교정 : 틀어지거나 잘못된 것을 바로잡음</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>校訂</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>矯正: 바로잡을 교, 바를 정</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>類型</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>훼손</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>유형</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>語不成說</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>남부여대</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>어불성설</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>踏襲</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>무산</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>답습: 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>容恕</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>항의</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>용서</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>免職</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>시기</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>면직</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>誇示</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>세무</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>과시</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>復歸</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>누설</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>복귀</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>활력</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>진서</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>捕捉</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>능가</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>포착</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>謁見</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>효시</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>알현</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>規定</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>열사</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>규정</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>抗議</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>세무</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>항의</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>依存</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>의무</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>의존</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>탐색</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>역할</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>서막</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>주저</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>退任</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>세월</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>퇴임</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230227</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>對策</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>도야</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>대책</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>20230227</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23시 12분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1951,14 +1951,439 @@
           <t>대책</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>20230227</t>
-        </is>
+      <c r="D61" t="n">
+        <v>20230227</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>23시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>변기</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>誇示</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>검역</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>과시</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>기탄</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>결핍</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>난해</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>주저</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>昇降</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>오열</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>승강</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>섭렵</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>결핍</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>22시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>踏襲</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>모험</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>답습: 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>處罰</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>살균</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>처벌</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>도피</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>描寫</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>추호</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>묘사</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>機會</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>작품</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>기회</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>22시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>沈滯</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>배척</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>침체</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>採用</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>획득</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>채용</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>22시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>건실</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>단서</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>재회</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>22시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>滔滔</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>담담</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>도도: 말하는 모양이 거침이 없다</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230301</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>起爆劑</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>몰상식</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>기폭제</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>20230301</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22시 52분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2376,14 +2376,489 @@
           <t>기폭제</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>20230301</t>
-        </is>
+      <c r="D78" t="n">
+        <v>20230301</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>22시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>구현</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>기탄</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>결핍</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>滔滔</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>담담</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>도도: 말하는 모양이 거침이 없다</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>서사</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>주저</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>提案</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>견해</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>제안</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>準則</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>낙점</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>준칙</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>處罰</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>기회</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>처벌</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>遍歷</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>비운</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>편력: 이곳저곳을 널리 돌아다님. 여러 가지 경험을 함.</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>標準語</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>청소년</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>표준어</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>투척</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>훼손:체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>자세</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>주저</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>사퇴</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>滔滔</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>담담</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>도도: 말하는 모양이 거침이 없다</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>滔滔</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>담담</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>도도: 말하는 모양이 거침이 없다</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>간발</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>결핍</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>21시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>유산</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>涉獵</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>소실</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>섭렵</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>負傷</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>청결</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>부상</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230303</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>覺書</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>미련</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>각서</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>20230303</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2851,14 +2851,839 @@
           <t>각서</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>20230303</t>
-        </is>
+      <c r="D97" t="n">
+        <v>20230303</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>滔滔</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>담담</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>도도: 말하는 모양이 거침이 없다</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>설령</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>咽喉</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>정립</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>인후</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>21시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>看過</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>간만</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>간과</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>抗議</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>투고</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>항의</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>負傷</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>검증</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>부상</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>貴賤</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>운명</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>귀천</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>교정 : 남의 문장 또는 출판물의 잘못된 글자나 글귀 따위를 바르게 고침</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>校庭</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>校訂: 학교/바로잡다 교, 바로잡을 정</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>凌駕</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>소집</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>능가</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>22시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>역사</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>22시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>描寫</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">자규 </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>묘사</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>22시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>辭讓之心</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>지란지교</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>사양지심:겸손이 남에게 사양하는 마음</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>22시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>規則</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>실패</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>규칙</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>懲役</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>나포</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>징역</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>生成</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>삼엄</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>생성</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230306</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>滔滔</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>담담</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>도도: 말하는 모양이 거침이 없다</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>21시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>紐帶</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>간여</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>유대: 묶을 뉴, 띠 대</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>擧案齊眉</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>여필종부</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>거안제미</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>21시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>漏落</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>비색</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>누락</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>輾轉不寐</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>빙산일각</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>전전불매: 누워서 이리저리 뒤척이며 잠을 이루지 못한다는 말</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>22시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>描寫</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>혼곤</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>묘사</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>22시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>遍歷</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>간척</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>편력: 이곳저곳을 널리 돌아다님. 여러 가지 경험을 함.</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>22시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>焦點</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>묵념</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>초점 : 촛점 X</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>22시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>재회</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>단서</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>22시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>踏襲</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>가련</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>답습: 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>22시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>恣意性</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>몰상식</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>자의성</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>22시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>설전</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>22시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>客反爲主</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>맥수지탄</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>객반위주:손님이 오히려 주인인 체하다</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>22시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>儉素</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>검역</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>검소</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>22시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>創製</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>의원</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>창제</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>22시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>寡默</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>만대</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>과묵</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>22시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>見解</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>유형</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>견해</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230307</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>22시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>論功行賞</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>공도동망</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>논공행상: 공이 있고 없음이나 크고 작음을 따져 거기에 알맞은 상을 줌</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>20230307</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>22시 57분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3676,14 +3676,39 @@
           <t>논공행상: 공이 있고 없음이나 크고 작음을 따져 거기에 알맞은 상을 줌</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>20230307</t>
-        </is>
+      <c r="D130" t="n">
+        <v>20230307</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>22시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>尿素</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>제청</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>요소: 오줌 뇨, 흴 소</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>20230310</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>22시 31분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3676,14 +3676,39 @@
           <t>논공행상: 공이 있고 없음이나 크고 작음을 따져 거기에 알맞은 상을 줌</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>20230307</t>
-        </is>
+      <c r="D130" t="n">
+        <v>20230307</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>22시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>復歸</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>요대</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>복귀</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>20230311</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>17시 33분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,14 +3701,39 @@
           <t>복귀</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>20230311</t>
-        </is>
+      <c r="D131" t="n">
+        <v>20230311</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>17시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>陰沈</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>단서</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>음침</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>20230313</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21시 35분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3726,14 +3726,164 @@
           <t>음침</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>20230313</t>
-        </is>
+      <c r="D132" t="n">
+        <v>20230313</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>21시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>描寫</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>오등</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>묘사</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>21시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>收斂</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>검역</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>수렴</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>21시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>意向</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>의중</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>의향</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>21시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>殞命</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>기호</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>운명</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>21시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>口舌數</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>몰상식</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>구설수</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>漏落</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">세우 </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>누락</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>20230315</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3876,14 +3876,1189 @@
           <t>누락</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>20230315</t>
-        </is>
+      <c r="D138" t="n">
+        <v>20230315</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>含憤蓄怨</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>행운유수</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>함분축원: 분한 마음을 품고 원한을 쌓음</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>15시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>玉石混淆</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>옥석혼효: 좋은 것과 나쁜 것이 섞여 있음</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>15시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>支離滅裂</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>간난신고</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>지리멸렬: 이리저리 흩어지고 찢기어 갈피를 잡을 수 없음</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>16시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>含憤蓄怨</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">시위소찬 </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>함분축원: 분한 마음을 품고 원한을 쌓음</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>16시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>規則</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>달변</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>규칙</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>16시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>思惟</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>신의</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>사유</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>16시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>類推</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>염치</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>유추</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>16시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>靑雲之志</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>부화뇌동</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>청운지지</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>16시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>교정 : 틀어지거나 잘못된 것을 바로잡음</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>敎正</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>矯正: 바로잡을 교, 바를 정</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>16시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>基盤</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>소원</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>기반</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>16시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>更任</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>여부</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>경임</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>16시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>不可避</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>불가결</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>불가피</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>17시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>危害</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>확실</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>위해</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>17시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>陰刻</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>초유</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>음각</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>17시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>救助</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>지식</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>구조</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>17시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>拿捕</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>혼란</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>나포</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>17시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>남상</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>가상</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>18시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>滔滔</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>담담</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>도도: 말하는 모양이 거침이 없다</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>18시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>지배</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>18시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>銳敏</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>소멸</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>예민: 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>18시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>참여</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>규율</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>18시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>화음</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>화폐</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>18시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>喊聲</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>퇴고</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>함성: 여러 사람이 함께 외치거나 지르는 소리.</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>18시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>殞命</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>지배</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>운명</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>18시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>厭世的</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>유명세</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>염세적</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>18시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>自存性</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>자존심</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>자존성</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>18시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>浮揚策</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>도외시</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>부양책</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>19시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>救助</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>운명</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>구조</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>19시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>촌탁</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>역할</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>19시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>捨生取義</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>후생가외</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>사생취의: 
+「목숨을 버리고 의리를 좇는다」
+「비록 목숨을 버릴지언정 옳은 일을 함」을 일컫는 말</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>19시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>세력</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>호흡</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>19시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>聯關</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>급여</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>연관</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>19시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>話題</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>담합</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>화제</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>20시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>缺勤</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>고통</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>결근</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>20시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>銳敏</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>담합</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>예민: 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>20시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>免職</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>침체</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>면직</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>20시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>위기</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>규율</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>20시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>拒絶</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>악기</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>거절</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>20시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>可能</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>변절</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>가능</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>20시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>시기에 늦어 기회를 놓침을 탄식</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>서리지탄, 黍離之歎</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>만시지탄, 晩時之歎</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>20시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>葛藤</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>망조</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>갈등</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>20시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>詐稱</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>변기</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>사칭: 이름, 직업, 나이, 주소 따위를 거짓으로 속여 이름</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>20시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>唯一無二</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>일거양득</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>유일무이:둘이 아니고 오직 하나뿐임</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>設令</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>멸망</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>설령</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>21시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>琴瑟相和</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>성동격서</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>금슬상화: 
+「거문고와 비파 소리가 조화를 이룬다」
+부부 사이가 다정하고 화목함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>21시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>搨本</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>미담</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>탑본</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>21시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>見習</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>응시</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>견습</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>20230321</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5051,14 +5051,239 @@
           <t>견습</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>20230321</t>
-        </is>
+      <c r="D185" t="n">
+        <v>20230321</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
           <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>서막</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>호흡</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>救助</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>심각</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>구조</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>15시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>詐稱</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">선양 </t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>사칭: 이름, 직업, 나이, 주소 따위를 거짓으로 속여 이름</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>사임</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>조세</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>救助</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>소진</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>구조</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>15시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>화두</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>규율</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>捕捉</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>주목</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>포착</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>樂觀</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>변조</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>낙관</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230322</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>謝罪</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>유기</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>사죄</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>20230322</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>16시 49분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5276,14 +5276,39 @@
           <t>사죄</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>20230322</t>
-        </is>
+      <c r="D194" t="n">
+        <v>20230322</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>16시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>認識</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>참견</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>인식 : 사물을 분별하고 판단하여 앎</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>20230323</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>07시 11분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5301,14 +5301,9509 @@
           <t>인식 : 사물을 분별하고 판단하여 앎</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>20230323</t>
-        </is>
+      <c r="D195" t="n">
+        <v>20230323</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>07시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>창자벽</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>腸壁: 장벽, 창자 장, 벽 벽</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>11시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>조세: 조세 조, 세금 세, 국가 또는 지방자치단체가 필요한 경비로 사용하기 위하여 국민이나 주민으로부터 강제로 거두어들이는 금전</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>11시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>齷齪</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>악착: 악착할 악, 악착할 착, 일을 해 나가는 태도가 모질고 끈덕짐</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>11시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>俗臭</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>속취: 풍속 속, 냄새 취, 1. 세속의 더러운 냄새 2. 돈이나 헛된 명예에 집착하는 천한 기풍</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>11시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>필요 이상의 돈이나 물건을 쓰거나 분수에 지나친 생활을 함</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>奢移</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>奢侈:
+사치(奢移: 사치할 사, 크게 할 치)
+사치(奢侈: 사치할 사, 사치할 치)</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>11시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>과거의 잘못된 관행을 답습(踏襲)하는 것은 옳지 않다</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>踏習</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>踏襲:답습(踏襲): 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>11시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>11시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>灌注</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>관주: 물댈 괄, 부을 주, 물이 흘러 들어감</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>事典</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>사전: 事 일 사/ 典 법 전, 여러 가지 사항을 모아 일정한 순서로 배열하고 그 각각에 해설을 붙인 책</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>産地</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>생지</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>산지: (가축이나 채소 따위가)생산되어 나오는 곳</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>11시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>탑본: 베낄 탑, 근본 본, 비석, 기와, 기물 따위에 새겨진 글씨나 무늬를 종이에 그대로 떠냄</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>拓本</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>搨本: 탁본(拓本 박을 탁, 근본 본): 금석에 새긴 글씨나 그림을 그대로 종이에 박아냄</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>11시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>11시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>便乘</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>편승: 세태를 잘 이용하거나 남의 세력을 이용하여 자신의 이익을 거둠</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>發送</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>발송: 필 발, 보낼 송, 물건, 편지, 서류 따위를 우편이나 운송 수단을 이용하여 보냄</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>배출(排出) : 안에서 밖으로 밀어 내보냄</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>輩出</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>排出</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>便乘</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>편승: 세태를 잘 이용하거나 남의 세력을 이용하여 자신의 이익을 거둠</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>11시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>資質</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>자질</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>11시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>龜裂</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>귀감</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>균열: 터질 균, 찢을 열</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>11시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>技術</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>기술: 재주 기, 재주 술, 만들거나 짓거나 하는 재주 또는 솜씨</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>11시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>郵送</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>발송</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>우송: 우편 우, 보낼 송, 우편으로 보냄</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>11시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>11시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>11시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>사물이 어떠한 기준에 의하여 분간되는 한계</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>經界</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>境界: 경계: 지경 경, 지경 계</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>11시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>개정</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>爛漫</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>난만: 爛 빛날(문드러질)난/漫 흩어질 만, 1. 꽃이 활짝 많이 피어 화려함 2. 광채가 강하고 선명함</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>상정(上程): 토의할 안건을 회의 석상에 내어놓음</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>上程</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>便乘</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>편승: 세태를 잘 이용하거나 남의 세력을 이용하여 자신의 이익을 거둠</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>享有</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>향유</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>화폐: 재물 화, 화폐 폐</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>단서: 端 끝 단 緖 실마리 서, 일의 처음, 일의 실마리</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>단서: 端 끝 단 緖 실마리 서, 일의 처음, 일의 실마리</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>階梯</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>계제: 어떤 일을 할 수 있게 된 형편이나 기회</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>단서: 端 끝 단 緖 실마리 서, 일의 처음, 일의 실마리</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>설명: 어떤 일이나 대상의 내용을 상대편이 잘 알 수 있도록 밝혀 말함</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>設明</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>說明</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>단서: 端 끝 단 緖 실마리 서, 일의 처음, 일의 실마리</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>濫用</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>남용: 濫 넘칠 남/ 用 쓸 용, 일정한 기준이나 한도를 넘어서 함부로 씀</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>유언비어</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>流言蜚語</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>流言蜚語</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>단서: 端 끝 단 緖 실마리 서, 일의 처음, 일의 실마리</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>학술지의 규정(規正)에 따라 표절 논문을 반려하였다</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>規定</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>規正:
+規正(법 규, 바를 정)(X): 바로잡음
+規定(법 규, 정할 정)(O): 규칙으로 정하는 것. 법령에서 개개의 조항을 정하는 일</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>鎖閑遣悶</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>쇄한견민: 쇄사슬 쇄, 한가할 한, 보낼 견, 번민할 민, 세상과 격리되어 한가히 앉아 답답한 속을 풂</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>愁愁</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>소소</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>수수: 근심 수, 근심 수</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>정도에 지나친 행동</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>科擧</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>過擧</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>經營</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>경영</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>經營</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>경양</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>경영</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>消盡</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>소진: 사라질 소, 다할 진</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>消盡</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>소진: 사라질 소, 다할 진</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>어떤 권력이나 세력 또는 특수한 조건을 믿고 세도를 부림</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>姿勢</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>藉勢: 자세: 깔 자, 형세 세</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>어떤 권력이나 세력 또는 특수한 조건을 믿고 세도를 부림</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>姿勢</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>藉勢: 자세: 깔 자, 형세 세</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>政略的</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>정략적</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>灌注</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>관주: 물댈 괄, 부을 주, 물이 흘러 들어감</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>灌注</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>권주</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>관주: 물댈 괄, 부을 주, 물이 흘러 들어감</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>捷徑</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>첩경: 빠를 첩/지름길 경, 지름길</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>叱責</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>힐책</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>질책</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>咸池</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>감지</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>함지: 해가 진다고 하는 서쪽의 큰 못↔ 부상(扶桑)</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>어른어른하는 빛이 눈부시게 아름답다</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>混亂</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>焜爛: 혼란: 빛날 혼, 빛날 란</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>殺到</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>쇄도: 빠를 쇄, 이를 도</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>記述</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>기술: 기록할 기, 펼 술, 대상이나 과정의 내용과 특징을 있는 그대로 열거하거나 기록하여 서술함. 또는 그런 기록</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>咸池</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>함지: 해가 진다고 하는 서쪽의 큰 못↔ 부상(扶桑)</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>隘路</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>애로: 좁을 애, 길 로</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>변명</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>辯明</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>辨明</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>漏泄</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>누설: 샐 누, 샐 설</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>漏泄</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>누설: 샐 누, 샐 설</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>尊榮</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>존영: 지위가 높고 영화로움</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>漏泄</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>누설: 샐 누, 샐 설</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>각산 : 저마다 따로따로 흩어짐</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>各算</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>各散: 각각 각, 흩을 산</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>寂寞</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>적막: (고요할 적, 쓸쓸할 막), 고요하고 쓸쓸함</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>漏泄</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>누설: 샐 누, 샐 설</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>寂寞</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>적막: (고요할 적, 쓸쓸할 막), 고요하고 쓸쓸함</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>장광설</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>長廣說</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>長廣舌</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>寂寞</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>적막: (고요할 적, 쓸쓸할 막), 고요하고 쓸쓸함</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>漏泄</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>누설: 샐 누, 샐 설</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>寂寞</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>적막: (고요할 적, 쓸쓸할 막), 고요하고 쓸쓸함</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>적적: 적적(하다): 1. 조용하고 쓸쓸하다. 2. 하는 일 없이 심심하다</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>確實</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>확실: 굳을 확, 열매 실</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>옳고 그른 경위가 분간되는 한계</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>境界</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>經界: 경계: 지날 경, 지경 계</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>確實</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>확실: 굳을 확, 열매 실</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>補給</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>보급: 補 도울 보/ 給 줄 급, 물자나 자금 따위를 계속해서 대어 줌</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>確實</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>확실: 굳을 확, 열매 실</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>그 아이의 귀는 매우 예민(銳敏)하다</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>銳悶</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>銳敏: 예민(銳敏): 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>確實</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>확실: 굳을 확, 열매 실</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>妥協</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>협력</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>타협: 온당할 타, 합할 협, 두 편이 서로 좋도록 조정하여 협의함</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>揭記</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>게기: 揭 높이 들 게 記 기록할 기, 기록하여 높직하게 붙임</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>惹起</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>야기: 이끌 야, 일어날 기, 일이나 사건 따위를 끌어 일으킴</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>攷究</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>거구</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>고구: 살필 고, 연구할 구, 자세히 살펴 연구함</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>波瀾</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>파란: 물결 파 / 물결 란, 순탄하지 아니하고 어수선하게 계속되는 여러 가지 어려움이나 시련</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>再請</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>재론</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>재청: 再 다시 재 請 청할 청</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>未嘗不(미상불): 아닌 게 아니라 과연</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>미상불</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>昏困</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>곤혹</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>혼곤: 어두울 혼, 곤할 곤</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>弔戰場文</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr"/>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>조전장문: 조상할 조, 싸움 전, 마당 장, 글월 문</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>곤욕: 곤할 곤, 욕될 욕</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>곤욕: 곤할 곤, 욕될 욕</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>敎條</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>교양</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>교조: (가르칠 교, 가지 조), 역사적 환경이나 구체적 현실과 관계없이 어떠한 상황에서도 절대로 변하지 않는 진리인 듯 믿고 따르는 것</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>곤혹</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>곤욕: 곤할 곤, 욕될 욕</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>威壓的</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>위압적</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>곤혹</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>곤욕: 곤할 곤, 욕될 욕</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>威壓的</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>위압적</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>看護</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>간호</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>造作</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>조작: 造 지을 조/ 作 지을 작, 어떤 일을 사실인 듯이 꾸며 만듦</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>호녹ㄴ</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>곤욕: 곤할 곤, 욕될 욕</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>造作</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>고작</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>조작: 造 지을 조/ 作 지을 작, 어떤 일을 사실인 듯이 꾸며 만듦</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>威壓的</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>위압적</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>不肖</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>불초</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>蘊蓄</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>온축: 쌓을 온, 모을 축, 속에 깊이 쌓아 둠 / 오랫동안 학식 따위를 많이 쌓음</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>혼곤</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>곤욕: 곤할 곤, 욕될 욕</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>서사: 사실을 있는 그대로 적음</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>徐事</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>삶에 대한 통찰(洞察)이 묻어나는 말씀이다</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>通察</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>洞察: 通察 (X)洞察 (O)</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>체계(體系) : 일정한 원리에 따라서 낱낱의 부분이 짜임새 있게 조직되어 통일된 전체</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>體制</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>體系</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>조세: 조세 조, 세금 세, 국가 또는 지방자치단체가 필요한 경비로 사용하기 위하여 국민이나 주민으로부터 강제로 거두어들이는 금전</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>대상ㆍ환경 따위에 따라 마음에 절로 생기며 한동안 지속되는, 유쾌함이나 불쾌함 따위의 감정</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>氣奔</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>氣分: 기분: 기운 기, 나눌 분</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>行列</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>행렬</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>항렬: 항렬 항, 벌릴 렬</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>行列</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>행렬</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>항렬: 항렬 항, 벌릴 렬</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>爛漫</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>난만: 爛 빛날(문드러질)난/漫 흩어질 만, 1. 꽃이 활짝 많이 피어 화려함 2. 광채가 강하고 선명함</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>爛漫</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>나남ㄴ</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>난만: 爛 빛날(문드러질)난/漫 흩어질 만, 1. 꽃이 활짝 많이 피어 화려함 2. 광채가 강하고 선명함</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>朋執</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>붕집: 벗 붕, 잡을 집, 비슷한 또래로서 서로 친하게 사귀는 사람</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>朋執</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>붕주</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>붕집: 벗 붕, 잡을 집, 비슷한 또래로서 서로 친하게 사귀는 사람</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>辛酸</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>신산: 辛 매울 신/酸 실 산, 1. 맛이 맵고 심 2. 세상살이가 힘들고 고생스러움을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>誹謗</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>비방</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>수요: 쓰일 수, 요긴할 요, 어떤 재화나 용역을 일정한 가격으로 사려고 하는 욕구</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>중요</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>수요: 쓰일 수, 요긴할 요, 어떤 재화나 용역을 일정한 가격으로 사려고 하는 욕구</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>수요: 쓰일 수, 요긴할 요, 어떤 재화나 용역을 일정한 가격으로 사려고 하는 욕구</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>중요</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>수요: 쓰일 수, 요긴할 요, 어떤 재화나 용역을 일정한 가격으로 사려고 하는 욕구</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>섣부른 豫斷은 금물이다</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>결단</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>예단: 미리 판단함. 또는 그 판단</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>대사는 신원을 알 수 없는 암살단에 의해 대사관에서 被襲을 받았다</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>피습</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>12시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>수요: 쓰일 수, 요긴할 요, 어떤 재화나 용역을 일정한 가격으로 사려고 하는 욕구</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>12시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>섣부른 豫斷은 금물이다</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>결단</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>예단: 미리 판단함. 또는 그 판단</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>12시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr"/>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>조세: 조세 조, 세금 세, 국가 또는 지방자치단체가 필요한 경비로 사용하기 위하여 국민이나 주민으로부터 강제로 거두어들이는 금전</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>12시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>溝渠：도랑 또는 개골창</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>구거: 溝渠(도랑 구, 개천 거)인공적인 수로 또는 그 부지. 하천보다 규모가 작은 4∼5m 폭의 개울을 뜻한다</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>12시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>郵送</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>우송: 우편 우, 보낼 송, 우편으로 보냄</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>12시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>12시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>郵送</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>우송: 우편 우, 보낼 송, 우편으로 보냄</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>12시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>12시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>溝渠：도랑 또는 개골창</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>구거: 溝渠(도랑 구, 개천 거)인공적인 수로 또는 그 부지. 하천보다 규모가 작은 4∼5m 폭의 개울을 뜻한다</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>12시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>12시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>수요: 쓰일 수, 요긴할 요, 어떤 재화나 용역을 일정한 가격으로 사려고 하는 욕구</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>12시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>과거에 것에 기대어 판단하거나 표현하는 경향</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>高踏的</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>擬古的: 의고적(擬古的), 고답적(高踏的)</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>12시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>笑殺</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>소살: 웃을 소, 죽일 살, 웃어넘기고 문제 삼지 아니함, 큰 소리로 비웃음</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>12시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>12시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>12시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>12시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>상식</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>12시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>12시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>12시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>荊棘</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>형극: 가시나무 형, 가시 극</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>12시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>12시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>荊棘</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>형극: 가시나무 형, 가시 극</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>12시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>상식</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>12시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr"/>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>조세: 조세 조, 세금 세, 국가 또는 지방자치단체가 필요한 경비로 사용하기 위하여 국민이나 주민으로부터 강제로 거두어들이는 금전</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>12시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>濫用</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>남용: 濫 넘칠 남/ 用 쓸 용, 일정한 기준이나 한도를 넘어서 함부로 씀</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>12시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>結局</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>결국: 맺을 결, 판 국</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>12시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>結局</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>결국: 맺을 결, 판 국</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>租稅</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>조세: 조세 조, 세금 세, 국가 또는 지방자치단체가 필요한 경비로 사용하기 위하여 국민이나 주민으로부터 강제로 거두어들이는 금전</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>12시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>濫用</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>남용: 濫 넘칠 남/ 用 쓸 용, 일정한 기준이나 한도를 넘어서 함부로 씀</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>12시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>12시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>於此彼</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr"/>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>어차피</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>12시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>계속되는 폭우로 마을 입구의 다리가 붕괴(崩壞)되었다</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>崩塊</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>崩壞:
+崩塊(무너질 붕, 흙덩이 괴)(X)
+崩壞(무너질 붕, 무너질 괴)(O): 허물어져 무너짐</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>계속되는 폭우로 마을 입구의 다리가 붕괴(崩壞)되었다</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>崩壞:
+崩塊(무너질 붕, 흙덩이 괴)(X)
+崩壞(무너질 붕, 무너질 괴)(O): 허물어져 무너짐</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>12시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>漏泄</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>누설: 샐 누, 샐 설</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>12시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr"/>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>12시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>12시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr"/>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>漏泄</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>우세</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>누설: 샐 누, 샐 설</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>주로 문서의 내용 따위를 고쳐 바르게 함</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>改定</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>改正: 개정: 고칠 개, 바를 정</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr"/>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>12시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>\</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>12시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr"/>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>12시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>驅逐</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr"/>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>구축: 몰 구/쫓을 축, 어떤 세력 따위를 몰아서 쫓아냄</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>12시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>12시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>12시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr"/>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>12시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>狷介</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr"/>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>견개: 狷 성급할 견/介 낄(낱)개, 굳게 절개를 지키고 구차하게 타협하지 아니함</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>체계(體系) : 일정한 원리에 따라서 낱낱의 부분이 짜임새 있게 조직되어 통일된 전체</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>體制</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>體系</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr"/>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr"/>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr"/>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr"/>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>유세: 놀 유, 달랠 세, 자기 의견 또는 자기 소속 정당의 주장을 선전하며 돌아다님</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>13시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr"/>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>13시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>13시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>計理</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr"/>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>계리: 計 셀 계 理 다스릴 리, 계산하여 정리함</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>13시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>分別</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>분류</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>분별: 나눌 분, 나눌 별</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>13시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>擴散</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr"/>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>확산: 넓힐 확, 흩을 산, 흩어져 널리 퍼짐</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>13시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr"/>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>13시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>13시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>計理</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>계리: 計 셀 계 理 다스릴 리, 계산하여 정리함</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>13시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr"/>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>철상 : 음식상이나 제사상을 거두어 치움</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>徹狀</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>撤床: 거둘 철, 평상 상</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>13시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>迅速</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>신속: 빠를 신, 빠를 속, 날쌔고 빠름</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>13시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>迅速</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>신속: 빠를 신, 빠를 속, 날쌔고 빠름</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr"/>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr"/>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr"/>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>13시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>唾棄</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr"/>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>타기: 침 타, 버릴 기, 침을 뱉듯이 버린다는 뜻으로, 업신여기거나 더럽게 생각하여 돌아보지 않고 버림을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>13시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>唾棄</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>타기: 침 타, 버릴 기, 침을 뱉듯이 버린다는 뜻으로, 업신여기거나 더럽게 생각하여 돌아보지 않고 버림을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>13시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>驕慢</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>사정</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>교만</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>13시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>13시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>驕慢</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>교만</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>13시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>箴言</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>감언</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>잠언: 경계 잠, 말씀 언</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>13시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>13시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>糠粃</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>강비: (겨 강, 쭉정이 비)겨와 쭉정이라는 뜻으로, 거친 식사를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>盛行</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>감행</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>성행: 매우 왕성하게 유행함</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>動態性</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>동태성: 동태(動態), 움직이거나 변하는 모습</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>06시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>06시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>便乘</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>편승: 세태를 잘 이용하거나 남의 세력을 이용하여 자신의 이익을 거둠</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>07시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>歪曲</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>왜곡: 기울 왜, 굽을 곡, 사실과 다르게 해석하거나 그릇되게 함</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>07시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>班列</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>반열: 품계나 신분, 등급의 차례</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>07시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>盛行</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>성헹</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>성행: 매우 왕성하게 유행함</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>07시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>07시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>班列</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>반열: 품계나 신분, 등급의 차례</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>07시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>糠粃</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>강비: (겨 강, 쭉정이 비)겨와 쭉정이라는 뜻으로, 거친 식사를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>07시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>눈동자가 기쁨으로 充溢하다</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>충만</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>충일: 충일하다(充溢--), 가득 차서 넘치다</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>07시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>班列</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>반열: 품계나 신분, 등급의 차례</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>07시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>廓正</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>확정</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>率先</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>솔선: 거느릴(솔)먼저(선), 남보다 먼저 한다</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>奢侈</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>사치: 사치할 사, 사치할 치</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>奢侈</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>사치: 사치할 사, 사치할 치</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>07시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>模糊性</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>모호성: 모호(模糊), 흐리어 똑똑하지 못함</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>07시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>奢侈</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>사치: 사치할 사, 사치할 치</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>농후</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>07시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>劣惡</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>포악</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>열악: (못할 열, 악할 악), 품질이나 능력, 시설 따위가 매우 떨어지고 나쁨</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>07시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>確固</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>확고: 굳을 확, 굳을 고</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>07시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>確固</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>확고: 굳을 확, 굳을 고</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>농후\</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>연결</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>蔑視</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>멸시: 업신여길 멸, 볼 시, 업신여기거나 하찮게 여겨 깔봄</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>07시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>07시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>諸元</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>제원: 기계류의 치수나 무게 따위의 성능과 특성을 나타낸 수적지표</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>銅鏡</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>동경: (구리 동, 거울 경), 구리로 만든 거울</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>生成性</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>생산성</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>생성성: 생성(生成), 사물이 생겨나는 성질 또는 사물이 생겨 이루어지게 하는 성질</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>諸元</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>제원: 기계류의 치수나 무게 따위의 성능과 특성을 나타낸 수적지표</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr"/>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>07시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>爛漫</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>난만: 爛 빛날(문드러질)난/漫 흩어질 만, 1. 꽃이 활짝 많이 피어 화려함 2. 광채가 강하고 선명함</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>07시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>諸元</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>제원: 기계류의 치수나 무게 따위의 성능과 특성을 나타낸 수적지표</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>07시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>中傷</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>중상</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>07시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>墮落</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>타락: (떨어질 타, 떨어질 락), 올바른 길에서 벗어나 잘못된 길로 빠지는 일</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>07시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>唾棄</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>타기: 침 타, 버릴 기, 침을 뱉듯이 버린다는 뜻으로, 업신여기거나 더럽게 생각하여 돌아보지 않고 버림을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>07시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>諸元</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>재원</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>제원: 기계류의 치수나 무게 따위의 성능과 특성을 나타낸 수적지표</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>07시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>07시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>漏泄</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>진세</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>누설: 샐 누, 샐 설</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>07시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>수요: 쓰일 수, 요긴할 요, 어떤 재화나 용역을 일정한 가격으로 사려고 하는 욕구</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>07시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>적적: 적적(하다), 1. 조용하고 쓸쓸하다. 2. 하는 일 없이 심심하다</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>07시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>行列</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>향렬</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>항렬: 항렬 항, 벌릴 렬</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>적적: 적적(하다), 1. 조용하고 쓸쓸하다. 2. 하는 일 없이 심심하다</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>需要</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>수요: 쓰일 수, 요긴할 요, 어떤 재화나 용역을 일정한 가격으로 사려고 하는 욕구</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>委棄하다：내버려두다</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>위기: 委棄(맡길 위, 버릴 기)버리고 돌보지 않음 (소유권 양도의 의사표시)</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>口腹</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr"/>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>입구: (입 구, 배 복)먹고살기 위하여 음식물을 섭취하는 입과 배</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>적적: 적적(하다), 1. 조용하고 쓸쓸하다. 2. 하는 일 없이 심심하다</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr"/>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>적적: 적적(하다), 1. 조용하고 쓸쓸하다. 2. 하는 일 없이 심심하다</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>否運</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>부연</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>비운: 막혀서 어려운 처지에 이른 운수</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>謁見</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr"/>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>알현: 뵐 알, 뵈올 현</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>消去</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>소거: 사라질 소, 갈 거</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>기록: (기록할 기, 기록할 록), 사실을 적은 서류, 또는 사실을 적음</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>대전 : 1. 집터에 딸리거나 집 가까이 있는 밭. 2. 집터와 밭을 아울러 이르는 말</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>臺前</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>垈田: 집터 대, 밭 전</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>桎梏</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>질곡: 차꼬 질, 수갑 곡</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>陣痛</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>진통: 진 칠 진, 아플 통, 해산할 때에, 짧은 간격을 두고 주기적으로 반복되는 배의 통증</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>團聚</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr"/>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>단취: 둥글 단, 모을 취, 집안 식구나 친한 사람들끼리 화목하게 한자리에 모임</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>07시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>狷介</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>견개: 狷 성급할 견/介 낄(낱)개, 굳게 절개를 지키고 구차하게 타협하지 아니함</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>07시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>단서: 端 끝 단 緖 실마리 서, 일의 처음, 일의 실마리</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>07시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>團聚</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>단취: 둥글 단, 모을 취, 집안 식구나 친한 사람들끼리 화목하게 한자리에 모임</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>07시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>개발(開發) : 새로운 물건을 만들거나 새로운 생각을 내어놓음</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>啓發</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>開發</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>07시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>團聚</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>단취: 둥글 단, 모을 취, 집안 식구나 친한 사람들끼리 화목하게 한자리에 모임</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>規範性</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>규범성: 규범(規範),인간이 행동하거나 판단할 때에 마땅히 따르고 지켜야 할 가치 판단의 기준</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>揭載</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>게재: (걸 게, 실을 재), 신문(新聞)따위에 글이나 그림을 실음</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>無鑑於水</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>무감어수: (없을 무, 거울 감, 어조사 어, 물 수), 물에 비추어 보지 마라</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>規範性</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>규범성: 규범(規範),인간이 행동하거나 판단할 때에 마땅히 따르고 지켜야 할 가치 판단의 기준</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>外貌</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>외모: (바깥 외, 모양 모), 겉으로 드러나 보이는 모양</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>拔萃</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>발췌: 책이나 글 따위에서 필요하거나 중요한 부분을 가려 뽑아냄</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>埋木</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>이목</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>매목: 묻을 매/나무 목, 오랫동안 땅이나 물속에 파묻혀 화석과 같이 된 나무. 틈서리, 구멍 따위를 땜질하여 메우는 나무쪽</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>銅鏡</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>동경: (구리 동, 거울 경), 구리로 만든 거울</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>07시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>外貌</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>외모: (바깥 외, 모양 모), 겉으로 드러나 보이는 모양</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>07시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>拔萃</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>발췌: 책이나 글 따위에서 필요하거나 중요한 부분을 가려 뽑아냄</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>07시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>規範性</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>결단성</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>규범성: 규범(規範),인간이 행동하거나 판단할 때에 마땅히 따르고 지켜야 할 가치 판단의 기준</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>07시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>追放</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>방증</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>추방: 追 쫓을 추, 放 놓을 방, 일정한 지역이나 조직 밖으로 쫓아냄</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>07시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>規範性</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>규범성: 규범(規範),인간이 행동하거나 판단할 때에 마땅히 따르고 지켜야 할 가치 판단의 기준</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>集團</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>집단: (모을 집, 둥글 단), 여럿이 모여 이룬 모임</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>의사 : 실제와 비슷하다</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>蟻邪</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>擬似:
+儗事(망설일 의, 일 사)
+擬似(비길 의, 닮을 사)
+蟻邪(개미 의, 사악할 사)
+疑寫(의심할 의, 베낄 사)</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>07시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>兼愛</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>겸애: (겸할 겸, 사랑 애), 가리지 않고 모든 사람을 똑같이 두루 사랑함</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>07시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>07시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>兼愛</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>겸애: (겸할 겸, 사랑 애), 가리지 않고 모든 사람을 똑같이 두루 사랑함</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>07시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>拔萃</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>발췌: 책이나 글 따위에서 필요하거나 중요한 부분을 가려 뽑아냄</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>07시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>規範性</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>결단성</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>규범성: 규범(規範),인간이 행동하거나 판단할 때에 마땅히 따르고 지켜야 할 가치 판단의 기준</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>兼愛</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>겸애: (겸할 겸, 사랑 애), 가리지 않고 모든 사람을 똑같이 두루 사랑함</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>宮趾</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>궁지: (집 궁, 발 지), ‘궁궐터’를 다르게 부르는 말</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>07시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>捺印</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr"/>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>날인: 누를 날, 도장 인</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>07시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>兼愛</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>겸애: (겸할 겸, 사랑 애), 가리지 않고 모든 사람을 똑같이 두루 사랑함</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>07시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>模寫</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>묘사</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>모사: 模(본뜰 모/모호할 모)寫(베낄 사)사물을 형체 그대로 그림. 또는 그런 그림이나 원본을 베끼어 씀</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>投擲</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr"/>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>투척</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>甘受</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr"/>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">감수: 달 감, 받을 수, 군말 없이 달게 받음 </t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>投擲</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>투척</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>07시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>兼愛</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>겸애: (겸할 겸, 사랑 애), 가리지 않고 모든 사람을 똑같이 두루 사랑함</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>07시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>주의:
+㉠ 굳게 지키는 주장이나 방침
+㉡ 체계화된 이론이나 학설</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>主意</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>主義: (임금 주, 옳을 의)</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>07시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>勸告</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>확고</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>권고</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>07시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>昏困</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>곤혹</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>혼곤: 어두울 혼, 곤할 곤</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>07시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>駘蕩</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>교만</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>태랑: 駘 둔마(느리고 둔한 말, 편하다)태/蕩 방탕할 탕, 1. 넓고 큼 2. 봄날의 바람이나 날씨가 화창함</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>07시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>주의:
+㉠ 굳게 지키는 주장이나 방침
+㉡ 체계화된 이론이나 학설</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>主意</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>主義: (임금 주, 옳을 의)</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>07시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>투척</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>07시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>勸告</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>권고</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>兼愛</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>겸애: (겸할 겸, 사랑 애), 가리지 않고 모든 사람을 똑같이 두루 사랑함</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>好轉</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>호전: 좋을 호, 구를 전, 일의 형세가 좋은 쪽으로 바뀜</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>去頭截尾</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>거두절미: 어떤 일의 요점만 간단히 말함</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>兼愛</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>겸애: (겸할 겸, 사랑 애), 가리지 않고 모든 사람을 똑같이 두루 사랑함</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>07시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>협상: 어떤 목적에 부합되는 결정을 하기 위하여 여럿이 서로 의논함</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>協贊</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>協商: 화합할 협, 장사 상</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>07시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>苦笑</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>고소: 쓸 고, 웃음 소, 쓴웃음, 어이가 없거나 마지못하여 짓는 웃음</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>07시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>勸告</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>확고</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>권고</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>分別</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>분열</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>분별: 나눌 분, 나눌 별</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>07시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr"/>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>形成</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr"/>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>형성: (모양 형, 이룰 성), 어떤 형상을 이룸</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>전자 문서에 決裁를 받아 합격자를 확정하겠습니다</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>決濟</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>決裁:
+決裁(결단할 결, 마를 재), 결정할 권한이 있는 상관이 부하가 제출한 안건을 검토하여 허가하거나 승인함
+決濟(결단할 결, 건널 제), 일을 처리하여 끝을 냄\</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>紐帶</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>유대: 맺을 유, 띠 대, 둘 이상을 서로 연결하거나 결합하게 하는 것. 또는 그런 관계</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>箴言</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>잠언: 경계 잠, 말씀 언</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>盛行</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>성행: 매우 왕성하게 유행함</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>屍山血海</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr"/>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>시산혈해: 사람의 시체가 산같이 쌓이고 피가 바다같이 흐름을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>07시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>童氣</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>동기: (아이 동, 기운 기)</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>07시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>扶桑</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr"/>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>부상: 해가 뜨는 동쪽 바다↔ 함지(咸池)</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>07시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>07시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>금단 : 어떤 행위를 못하도록 금함</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>錦端</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>禁斷: 금할 금, 끊을 단</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>07시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>復命</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>복명: 뒤집을(복)목숨(명),명령을 받고 일을 처리한 사람이 그 결과를 보고한다</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>07시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>陣痛</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>진통: 진 칠 진, 아플 통, 해산할 때에, 짧은 간격을 두고 주기적으로 반복되는 배의 통증</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>陣痛</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>진통: 진 칠 진, 아플 통, 해산할 때에, 짧은 간격을 두고 주기적으로 반복되는 배의 통증</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>敎條</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>교조: (가르칠 교, 가지 조), 역사적 환경이나 구체적 현실과 관계없이 어떠한 상황에서도 절대로 변하지 않는 진리인 듯 믿고 따르는 것</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>喪失</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>상실: (잃을 상, 잃을 실), 어떤 것을 아주 잃거나 사라지게 하다</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>형륙: 죄지은 사람을 형법에 따라 죽임</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>刑戮</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>刑勠:
+刑戮(형벌 형, 죽일 륙)O
+刑勠(형벌 형, 합할 륙)X</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>07시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>08시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>陣痛</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>진통: 진 칠 진, 아플 통, 해산할 때에, 짧은 간격을 두고 주기적으로 반복되는 배의 통증</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>08시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>형륙: 죄지은 사람을 형법에 따라 죽임</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>刑勠</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>刑戮:
+刑戮(형벌 형, 죽일 륙)O
+刑勠(형벌 형, 합할 륙)X</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>08시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>결제 : 증권 또는 대금을 주고받아 매매 당사자 사이의 거래 관계를 끝맺는 일</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>決裁</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>決濟</t>
+        </is>
+      </c>
+      <c r="D551" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>08시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>混亂</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>혼란: 섞을 혼, 어리저울 난</t>
+        </is>
+      </c>
+      <c r="D552" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>08시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>愁愁</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr"/>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>수수: 근심 수, 근심 수</t>
+        </is>
+      </c>
+      <c r="D553" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>08시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>規範性</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>규범성: 규범(規範),인간이 행동하거나 판단할 때에 마땅히 따르고 지켜야 할 가치 판단의 기준</t>
+        </is>
+      </c>
+      <c r="D554" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>08시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>영결식 : 장사 지내기 전에, 죽은 사람을 영원히 떠나보낸다는 뜻으로 행하는 의식</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>永決式</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>永訣式: 永訣式(길 영, 이별할 결, 법 식)O, 永決式(길 영, 결단할 결, 법 식)X</t>
+        </is>
+      </c>
+      <c r="D555" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>08시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr"/>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D556" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>08시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>規範性</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>백안시</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>규범성: 규범(規範),인간이 행동하거나 판단할 때에 마땅히 따르고 지켜야 할 가치 판단의 기준</t>
+        </is>
+      </c>
+      <c r="D557" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>08시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>惹起</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr"/>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>야기: 이끌 야, 일어날 기, 일이나 사건 따위를 끌어 일으킴</t>
+        </is>
+      </c>
+      <c r="D558" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>08시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>陣痛</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>편승</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>진통: 진 칠 진, 아플 통, 해산할 때에, 짧은 간격을 두고 주기적으로 반복되는 배의 통증</t>
+        </is>
+      </c>
+      <c r="D559" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>08시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>敷衍</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr"/>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>부연: 펼 부, 넓을 연</t>
+        </is>
+      </c>
+      <c r="D560" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>08시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>弔戰場文</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>조전장문: 조상할 조, 싸움 전, 마당 장, 글월 문</t>
+        </is>
+      </c>
+      <c r="D561" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>08시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr"/>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>08시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>敷衍</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>부연: 펼 부, 넓을 연</t>
+        </is>
+      </c>
+      <c r="D563" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>08시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>陣痛</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>농후</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>진통: 진 칠 진, 아플 통, 해산할 때에, 짧은 간격을 두고 주기적으로 반복되는 배의 통증</t>
+        </is>
+      </c>
+      <c r="D564" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>08시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>敷衍</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>부연: 펼 부, 넓을 연</t>
+        </is>
+      </c>
+      <c r="D565" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>08시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>如出一口</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>지출일구</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>여출일구: 한 입에서 나오는 것처럼 여러 사람의 말이 같음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D566" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>08시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>階梯</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>계제: 어떤 일을 할 수 있게 된 형편이나 기회</t>
+        </is>
+      </c>
+      <c r="D567" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>08시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>弔詞</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr"/>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>조사: (조상할 조, 말 사), 죽은 사람을 슬퍼하여 조문(弔問)의 뜻을 표하는 글이나 말</t>
+        </is>
+      </c>
+      <c r="D568" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>08시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>樂園</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>낙원</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>낙승: 즐거울 (낙)동산 (원), 아무런 걱정이나 부족함이 없이 살 수 있는 즐거운 곳</t>
+        </is>
+      </c>
+      <c r="D569" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>08시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>素朴</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr"/>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>소박: 소박하다, 꾸밈이나 거짓이 없고 수수하다</t>
+        </is>
+      </c>
+      <c r="D570" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>08시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>齷齪</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr"/>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>악착: 악착할 악, 악착할 착, 일을 해 나가는 태도가 모질고 끈덕짐</t>
+        </is>
+      </c>
+      <c r="D571" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>08시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>階梯</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr"/>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>계제: 어떤 일을 할 수 있게 된 형편이나 기회</t>
+        </is>
+      </c>
+      <c r="D572" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>08시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>弔詞</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>계제</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>조사: (조상할 조, 말 사), 죽은 사람을 슬퍼하여 조문(弔問)의 뜻을 표하는 글이나 말</t>
+        </is>
+      </c>
+      <c r="D573" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>08시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>敷衍</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr"/>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>부연: 펼 부, 넓을 연</t>
+        </is>
+      </c>
+      <c r="D574" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>08시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>敷衍</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>부연: 펼 부, 넓을 연</t>
+        </is>
+      </c>
+      <c r="D575" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>08시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>弔詞</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>조사: (조상할 조, 말 사), 죽은 사람을 슬퍼하여 조문(弔問)의 뜻을 표하는 글이나 말</t>
+        </is>
+      </c>
+      <c r="D576" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>08시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>反芻</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr"/>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>반추: 어떤 일을 되풀이하여 음미함</t>
+        </is>
+      </c>
+      <c r="D577" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>08시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>拿捕</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr"/>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>나포</t>
+        </is>
+      </c>
+      <c r="D578" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>08시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>鎖閑遣悶</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr"/>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>쇄한견민: 쇄사슬 쇄, 한가할 한, 보낼 견, 번민할 민, 세상과 격리되어 한가히 앉아 답답한 속을 풂</t>
+        </is>
+      </c>
+      <c r="D579" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>08시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>敷衍</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr"/>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>부연: 펼 부, 넓을 연</t>
+        </is>
+      </c>
+      <c r="D580" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>08시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>弔詞</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>조사: (조상할 조, 말 사), 죽은 사람을 슬퍼하여 조문(弔問)의 뜻을 표하는 글이나 말</t>
+        </is>
+      </c>
+      <c r="D581" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>08시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>적적: 적적(하다), 1. 조용하고 쓸쓸하다. 2. 하는 일 없이 심심하다</t>
+        </is>
+      </c>
+      <c r="D582" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>08시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>늠름</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>적적: 적적(하다), 1. 조용하고 쓸쓸하다. 2. 하는 일 없이 심심하다</t>
+        </is>
+      </c>
+      <c r="D583" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>08시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>弔詞</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr"/>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>조사: (조상할 조, 말 사), 죽은 사람을 슬퍼하여 조문(弔問)의 뜻을 표하는 글이나 말</t>
+        </is>
+      </c>
+      <c r="D584" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>08시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>分離</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>분류</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>분리: 서로 나뉘어 떨어지거나 떨어지게함</t>
+        </is>
+      </c>
+      <c r="D585" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>08시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>驅逐</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>태랑</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>구축: 몰 구/쫓을 축, 어떤 세력 따위를 몰아서 쫓아냄</t>
+        </is>
+      </c>
+      <c r="D586" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>08시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>誹笑</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr"/>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>비소: 헐뜯을 비, 웃음 소</t>
+        </is>
+      </c>
+      <c r="D587" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>08시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>邁進</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr"/>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>매진: 갈 매, 나아갈 진</t>
+        </is>
+      </c>
+      <c r="D588" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>08시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>分離</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>분류</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>분리: 서로 나뉘어 떨어지거나 떨어지게함</t>
+        </is>
+      </c>
+      <c r="D589" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>08시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>弔詞</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>조사: (조상할 조, 말 사), 죽은 사람을 슬퍼하여 조문(弔問)의 뜻을 표하는 글이나 말</t>
+        </is>
+      </c>
+      <c r="D590" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>08시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>邁進</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr"/>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>매진: 갈 매, 나아갈 진</t>
+        </is>
+      </c>
+      <c r="D591" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>08시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr"/>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>하강: 아래(하)내릴(강), 높은 곳에서 아래로 향하여 내린다</t>
+        </is>
+      </c>
+      <c r="D592" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>08시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>捷徑</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr"/>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>첩경: 빠를 첩/지름길 경, 지름길</t>
+        </is>
+      </c>
+      <c r="D593" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>08시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>弔詞</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr"/>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>조사: (조상할 조, 말 사), 죽은 사람을 슬퍼하여 조문(弔問)의 뜻을 표하는 글이나 말</t>
+        </is>
+      </c>
+      <c r="D594" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>08시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>酒煎子</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr"/>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>주전자</t>
+        </is>
+      </c>
+      <c r="D595" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>08시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>集團</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr"/>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>집단: (모을 집, 둥글 단), 여럿이 모여 이룬 모임</t>
+        </is>
+      </c>
+      <c r="D596" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>08시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr"/>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>유세: 놀 유, 달랠 세, 자기 의견 또는 자기 소속 정당의 주장을 선전하며 돌아다님</t>
+        </is>
+      </c>
+      <c r="D597" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>08시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>주의:㉠ 주장이 되는 요지나 근본이 되는 중요한 뜻
+㉡ 주된 의미
+㉢ 이성이나 감성보다 의지를 중요하게 여기는 일</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>主義</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>主意: (임금 주, 뜻 의)</t>
+        </is>
+      </c>
+      <c r="D598" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>08시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>便乘</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr"/>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>편승: 세태를 잘 이용하거나 남의 세력을 이용하여 자신의 이익을 거둠</t>
+        </is>
+      </c>
+      <c r="D599" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>08시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>便乘</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr"/>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>편승: 세태를 잘 이용하거나 남의 세력을 이용하여 자신의 이익을 거둠</t>
+        </is>
+      </c>
+      <c r="D600" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>08시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>이것은 사장님의 결제(決裁)를 받아야 하는 서류입니다</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>決濟</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>決裁</t>
+        </is>
+      </c>
+      <c r="D601" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>08시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>弔詞</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>조사: (조상할 조, 말 사), 죽은 사람을 슬퍼하여 조문(弔問)의 뜻을 표하는 글이나 말</t>
+        </is>
+      </c>
+      <c r="D602" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>08시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>각산 : 저마다 따로따로 흩어짐</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>各算</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>各散: 각각 각, 흩을 산</t>
+        </is>
+      </c>
+      <c r="D603" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>08시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>驕慢</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>교만</t>
+        </is>
+      </c>
+      <c r="D604" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>08시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>纖細</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>섬세: 섬세하다, 1. 곱고 가늘다. 2. 매우 찬찬하고 세밀하다</t>
+        </is>
+      </c>
+      <c r="D605" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>08시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>階梯</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr"/>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>계제: 어떤 일을 할 수 있게 된 형편이나 기회</t>
+        </is>
+      </c>
+      <c r="D606" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>08시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>수수</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>적적: 적적(하다), 1. 조용하고 쓸쓸하다. 2. 하는 일 없이 심심하다</t>
+        </is>
+      </c>
+      <c r="D607" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>08시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>硏究員</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>연그원</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>연구원</t>
+        </is>
+      </c>
+      <c r="D608" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>08시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>過程</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>과거</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>과정: 過 지날 과, 程 한도 정/길 정, 일이 되어 가는 경로</t>
+        </is>
+      </c>
+      <c r="D609" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>08시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>確固</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr"/>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>확고: 굳을 확, 굳을 고</t>
+        </is>
+      </c>
+      <c r="D610" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>08시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>確固</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>혼곤</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>확고: 굳을 확, 굳을 고</t>
+        </is>
+      </c>
+      <c r="D611" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>08시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>은유 : 사물의 상태나 움직임을 암시적으로 나타내는 수사법</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>隱維</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>隱喩:
+隱喩(숨을 은, 깨우칠 유)
+隱維(숨을 은, 벼리 유)</t>
+        </is>
+      </c>
+      <c r="D612" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>08시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>童期</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr"/>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>동기: (아이 동, 기약할 기)</t>
+        </is>
+      </c>
+      <c r="D613" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>08시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>靜態性</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr"/>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>정태성: 정태(靜態), 움직이지 아니하고 가만히 있는 상태</t>
+        </is>
+      </c>
+      <c r="D614" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>08시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>模糊性</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>모호성: 모호(模糊), 흐리어 똑똑하지 못함</t>
+        </is>
+      </c>
+      <c r="D615" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>08시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>論據</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr"/>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>논거: 어떤 이론이나 논리, 논설 따위의 근거</t>
+        </is>
+      </c>
+      <c r="D616" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>08시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>司正</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr"/>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>사정: 맡을 사, 바를 정, 그릇된 일을 다스려 바로잡음</t>
+        </is>
+      </c>
+      <c r="D617" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>08시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>確固</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr"/>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>확고: 굳을 확, 굳을 고</t>
+        </is>
+      </c>
+      <c r="D618" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>08시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>童期</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr"/>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>동기: (아이 동, 기약할 기)</t>
+        </is>
+      </c>
+      <c r="D619" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>08시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>模糊性</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr"/>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>모호성: 모호(模糊), 흐리어 똑똑하지 못함</t>
+        </is>
+      </c>
+      <c r="D620" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>08시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>靜態性</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>종태성</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>정태성: 정태(靜態), 움직이지 아니하고 가만히 있는 상태</t>
+        </is>
+      </c>
+      <c r="D621" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>08시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>論據</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>논거: 어떤 이론이나 논리, 논설 따위의 근거</t>
+        </is>
+      </c>
+      <c r="D622" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>08시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>涉獵</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>섭렵</t>
+        </is>
+      </c>
+      <c r="D623" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>08시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>論據</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr"/>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>논거: 어떤 이론이나 논리, 논설 따위의 근거</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>20230402</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>08시 53분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E624"/>
+  <dimension ref="A1:E687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14796,14 +14796,1430 @@
           <t>논거: 어떤 이론이나 논리, 논설 따위의 근거</t>
         </is>
       </c>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>20230402</t>
-        </is>
+      <c r="D624" t="n">
+        <v>20230402</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
           <t>08시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>작자 자신의 일생을 소재로 스스로 짓거나, 남에게 구술하여 쓰게 한 전기</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>自書傳</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>自敍傳:
+自敍傳(스스로 자, 줄 서, 전할 전)
+自書傳(스스로 자, 글 서, 전할 전)</t>
+        </is>
+      </c>
+      <c r="D625" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>13시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>어떤 일이나 대상의 내용을 상대편이 잘 알 수 있도록 밝혀 말하거나 또는 그런 말</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>設明</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>說明: 設明(베풀 설, 밝을 명)(X)→ 說明(말씀 설, 밝을 명)(O)</t>
+        </is>
+      </c>
+      <c r="D626" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>13시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>1. 손수 쓴 글씨 (=친필) 2. 실제의 유적</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>眞寂</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>眞跡:
+진적(眞跡/眞蹟/眞迹: 참 진, 자취 적)
+진적(眞寂: 참 진, 고요할 적): 부처의 열반
+진적(眞籍: 참 진, 문서 적)</t>
+        </is>
+      </c>
+      <c r="D627" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>13시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>涉獵</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr"/>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>섭렵</t>
+        </is>
+      </c>
+      <c r="D628" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>13시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>望七</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>77세를 이르는 말</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>61세를 이르는 말: 望七 망칠</t>
+        </is>
+      </c>
+      <c r="D629" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>13시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>서점</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>冊絲</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>冊肆:
+책사(冊肆: 책 책, 방자할 사): 서점
+책사(冊絲: 책 책, 실 사): 책을 매는 데 쓰는 실
+책사(冊使: 책 책, 하여금 사)</t>
+        </is>
+      </c>
+      <c r="D630" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>13시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>確固</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>혼곤</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>확고: 굳을 확, 굳을 고</t>
+        </is>
+      </c>
+      <c r="D631" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>14시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>제도나 기구 따위를 새롭게 뜯어고침</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>開革</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>改革: 개혁, 改 고칠 개/革 가죽 혁), 제도나 기구 따위를 새롭게 뜯어고침
+개혁(開革, 開 열 개/革 가죽 혁), 없는 단어</t>
+        </is>
+      </c>
+      <c r="D632" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>14시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>集團</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr"/>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>집단: (모을 집, 둥글 단), 여럿이 모여 이룬 모임</t>
+        </is>
+      </c>
+      <c r="D633" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>14시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>唾棄</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr"/>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>타기: 침 타, 버릴 기, 침을 뱉듯이 버린다는 뜻으로, 업신여기거나 더럽게 생각하여 돌아보지 않고 버림을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D634" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>14시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>嘲笑</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr"/>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>조소: 비웃을 조, 웃음 소, 비웃음</t>
+        </is>
+      </c>
+      <c r="D635" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>14시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>의심을 품음</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>會議</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>懷疑: 회의(懷품을 회, 疑의심할 의)</t>
+        </is>
+      </c>
+      <c r="D636" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>14시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>部族</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>비방</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>부족: 떼 부, 겨레 족</t>
+        </is>
+      </c>
+      <c r="D637" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>14시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>어떤 사람이나 단체 따위의 주의ㆍ정책ㆍ의견 따위에 찬동하여 이를 위하여 힘을 씀. 또는 그 원조</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>持地</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>支持: 持地(X)→支持(지탱할 지, 가질 지)(O)*持: 가질 지 / 地: 땅 지</t>
+        </is>
+      </c>
+      <c r="D638" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>14시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>部族</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr"/>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>부족: 떼 부, 겨레 족</t>
+        </is>
+      </c>
+      <c r="D639" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>14시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>鬱寂</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr"/>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>울적: 답답할 울, 고요할 적</t>
+        </is>
+      </c>
+      <c r="D640" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>14시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>介在</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>개임</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>개재: 어떤 것들 사이에 끼여 있음</t>
+        </is>
+      </c>
+      <c r="D641" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>14시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>老衰</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr"/>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>노쇠: (늙을 노, 쇠할 쇠): 늙어서 쇠약하고 기운이 별로 없음</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>14시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>鬱寂</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>울적: 답답할 울, 고요할 적</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>14시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>部族</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr"/>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>부족: 떼 부, 겨레 족</t>
+        </is>
+      </c>
+      <c r="D644" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>14시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D645" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>14시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>鬱寂</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>울적: 답답할 울, 고요할 적</t>
+        </is>
+      </c>
+      <c r="D646" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>14시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr"/>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D647" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>14시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>駘蕩</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>경시</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>태랑: 駘 둔마(느리고 둔한 말, 편하다)태/蕩 방탕할 탕, 1. 넓고 큼 2. 봄날의 바람이나 날씨가 화창함</t>
+        </is>
+      </c>
+      <c r="D648" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>14시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr"/>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>위축: (萎 시들 위, 縮 오그라들 축): 어떤 힘에 눌려 졸아들고 기를 펴지 못함</t>
+        </is>
+      </c>
+      <c r="D649" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>14시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>訥辯</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>눌변: 말 더듬거릴 눌, 말씀 변, 더듬거리는 서툰 말솜씨</t>
+        </is>
+      </c>
+      <c r="D650" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>14시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>신문에서 사건의 진상에 대해 자세히 보고(報告)를 했다</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>報誥</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>報告</t>
+        </is>
+      </c>
+      <c r="D651" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>14시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr"/>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>위축: (萎 시들 위, 縮 오그라들 축): 어떤 힘에 눌려 졸아들고 기를 펴지 못함</t>
+        </is>
+      </c>
+      <c r="D652" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>14시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>鬱寂</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>울적: 답답할 울, 고요할 적</t>
+        </is>
+      </c>
+      <c r="D653" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>14시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr"/>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D654" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>14시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr"/>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>위축: (萎 시들 위, 縮 오그라들 축): 어떤 힘에 눌려 졸아들고 기를 펴지 못함</t>
+        </is>
+      </c>
+      <c r="D655" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>14시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>部族</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>부족: 떼 부, 겨레 족</t>
+        </is>
+      </c>
+      <c r="D656" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>14시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>馥郁</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>복욱: 향기 복, 성할 욱, 풍기는 향기가 그윽함</t>
+        </is>
+      </c>
+      <c r="D657" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>14시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>위축: (萎 시들 위, 縮 오그라들 축): 어떤 힘에 눌려 졸아들고 기를 펴지 못함</t>
+        </is>
+      </c>
+      <c r="D658" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>14시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>部族</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>부족: 떼 부, 겨레 족</t>
+        </is>
+      </c>
+      <c r="D659" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>14시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr"/>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D660" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>14시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>위축: (萎 시들 위, 縮 오그라들 축): 어떤 힘에 눌려 졸아들고 기를 펴지 못함</t>
+        </is>
+      </c>
+      <c r="D661" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>14시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>部族</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>부족: 떼 부, 겨레 족</t>
+        </is>
+      </c>
+      <c r="D662" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>14시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>部族</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>부족: 떼 부, 겨레 족</t>
+        </is>
+      </c>
+      <c r="D663" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D664" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>위축: (萎 시들 위, 縮 오그라들 축): 어떤 힘에 눌려 졸아들고 기를 펴지 못함</t>
+        </is>
+      </c>
+      <c r="D665" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr"/>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D666" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D667" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr"/>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D668" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>14시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr"/>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D670" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>14시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr"/>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D671" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>14시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr"/>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D672" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr"/>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D673" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D674" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr"/>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D675" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>14시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr"/>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>위축: (萎 시들 위, 縮 오그라들 축): 어떤 힘에 눌려 졸아들고 기를 펴지 못함</t>
+        </is>
+      </c>
+      <c r="D676" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>14시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr"/>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D677" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>14시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr"/>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D678" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>14시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D679" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>14시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr"/>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D680" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>14시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>수엽</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>위축: (萎 시들 위, 縮 오그라들 축): 어떤 힘에 눌려 졸아들고 기를 펴지 못함</t>
+        </is>
+      </c>
+      <c r="D681" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr"/>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D682" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>捺印</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr"/>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>날인: 누를 날, 도장 인</t>
+        </is>
+      </c>
+      <c r="D683" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr"/>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>훼손: 헐 훼/덜 손</t>
+        </is>
+      </c>
+      <c r="D684" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>捺印</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr"/>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>날인: 누를 날, 도장 인</t>
+        </is>
+      </c>
+      <c r="D685" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>14시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr"/>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D686" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr"/>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>20230403</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>14시 43분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E687"/>
+  <dimension ref="A1:E865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16212,14 +16212,4031 @@
           <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
         </is>
       </c>
-      <c r="D687" t="inlineStr">
+      <c r="D687" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>14시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr"/>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D688" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>14시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>隘路</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr"/>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>애로: 좁을 애, 길 로</t>
+        </is>
+      </c>
+      <c r="D689" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>14시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr"/>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D690" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>14시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr"/>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D691" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>14시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>涉獵</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr"/>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>섭렵</t>
+        </is>
+      </c>
+      <c r="D692" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>14시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>米壽</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>99세를 이르는 말</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>88세를 이르는 말: 米壽 미수</t>
+        </is>
+      </c>
+      <c r="D693" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>14시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>첩경</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D694" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>14시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>復命</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr"/>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>복명: 뒤집을(복)목숨(명),명령을 받고 일을 처리한 사람이 그 결과를 보고한다</t>
+        </is>
+      </c>
+      <c r="D695" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>14시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>做出</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr"/>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>주출: 지을 주, 날 출</t>
+        </is>
+      </c>
+      <c r="D696" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>14시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D697" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>做出</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>주출: 지을 주, 날 출</t>
+        </is>
+      </c>
+      <c r="D698" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr"/>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D699" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>周旋</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr"/>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>주선: 두루 주, 돌 선</t>
+        </is>
+      </c>
+      <c r="D700" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>사회적 현상(現狀)을 파악하여 정책을 마련해야 한다</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>懸賞</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>現狀:
+懸賞(매달 현, 상 줄 상)(X), 어떤 목적을 위하여 상금을 걸고 찾거나 모집함
+現狀(나타날 현, 형상 상)(O), 나타나 보이는 현재의 상태</t>
+        </is>
+      </c>
+      <c r="D701" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D702" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>15시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>주선</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D703" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>15시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr"/>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D704" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>15시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>15시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>秋毫</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr"/>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>추호</t>
+        </is>
+      </c>
+      <c r="D706" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>15시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>職責</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr"/>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>직책</t>
+        </is>
+      </c>
+      <c r="D707" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>15시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>가시(可視)적인 성과보다는 내실이 중요하다</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>可示</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>可視: 可示 (X)可視 (O)</t>
+        </is>
+      </c>
+      <c r="D708" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>15시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>오늘 우리의 이번 거사는 정의, 인도와 생존과 영광을 갈망하는 민족 전체의 요구이니, 오직 자유의 정신을 ㉠發揮할 것이요, 결코 ㉡배타적인 감정으로 정도에서 벗어난 잘못을 저지르지 마라</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr"/>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>發揮: 발휘, 發 필 발/揮 휘두를 휘, 재능, 능력 따위를 떨치어 나타냄</t>
+        </is>
+      </c>
+      <c r="D709" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>15시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>累卵之勢</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>지피지기</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>누란지세</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>15시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>유세: 놀 유, 달랠 세, 자기 의견 또는 자기 소속 정당의 주장을 선전하며 돌아다님</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>誘說</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>遊說: 유세(誘說 꾈 유, 달랠 세), 달콤한 말로 달래어 꾐</t>
+        </is>
+      </c>
+      <c r="D711" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>15시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>心臟</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr"/>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>심장: (마음 심, 오장 장)</t>
+        </is>
+      </c>
+      <c r="D712" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>15시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>魚魯不辨</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>어로불변: 魚자와 魯자를 구별하지 못한다는 뜻. 무식함</t>
+        </is>
+      </c>
+      <c r="D713" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>15시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>魚魯不辨</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>어로불변: 魚자와 魯자를 구별하지 못한다는 뜻. 무식함</t>
+        </is>
+      </c>
+      <c r="D714" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>15시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>유세: 놀 유, 달랠 세, 자기 의견 또는 자기 소속 정당의 주장을 선전하며 돌아다님</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>遊說: 유세(誘說 꾈 유, 달랠 세), 달콤한 말로 달래어 꾐</t>
+        </is>
+      </c>
+      <c r="D715" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>15시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr"/>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D716" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>15시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>心臟</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr"/>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>심장: (마음 심, 오장 장)</t>
+        </is>
+      </c>
+      <c r="D717" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>15시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>범법자, 포로, 난민, 관객, 물품 따위를 일정한 장소나 시설에 모아 넣음</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>收容: 수용, 거둘 수, 얼굴 용</t>
+        </is>
+      </c>
+      <c r="D718" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>15시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D719" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>以一警百</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>이일경백 : 한 사람을 벌하여 뭇사람의 경계가 되게 함</t>
+        </is>
+      </c>
+      <c r="D720" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>丹脣皓齒</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>단순호치: 
+1)「붉은 입술과 하얀 이」란 뜻으로,
+2)여자의 아름다운 얼굴을 이르는 말
+3)미인의 얼굴</t>
+        </is>
+      </c>
+      <c r="D721" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>勸告</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>권고</t>
+        </is>
+      </c>
+      <c r="D722" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>以一警百</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>이일경백 : 한 사람을 벌하여 뭇사람의 경계가 되게 함</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>勸告</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>권고</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>유세: 놀 유, 달랠 세, 자기 의견 또는 자기 소속 정당의 주장을 선전하며 돌아다님</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr"/>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>遊說: 유세(誘說 꾈 유, 달랠 세), 달콤한 말로 달래어 꾐</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr"/>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>心臟</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>심장: (마음 심, 오장 장)</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>魚魯不辨</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr"/>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>어로불변: 魚자와 魯자를 구별하지 못한다는 뜻. 무식함</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>범법자, 포로, 난민, 관객, 물품 따위를 일정한 장소나 시설에 모아 넣음</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr"/>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>收容: 수용, 거둘 수, 얼굴 용</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>丹脣皓齒</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>단순호치: 
+1)「붉은 입술과 하얀 이」란 뜻으로,
+2)여자의 아름다운 얼굴을 이르는 말
+3)미인의 얼굴</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>三顧草廬</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>삼고초려</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>勸告</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>권고</t>
+        </is>
+      </c>
+      <c r="D734" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>順延</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>순연: 순할 순/늘일 연, 차례로 기일을 늦춤</t>
+        </is>
+      </c>
+      <c r="D735" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>心臟</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr"/>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>심장: (마음 심, 오장 장)</t>
+        </is>
+      </c>
+      <c r="D736" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>범법자, 포로, 난민, 관객, 물품 따위를 일정한 장소나 시설에 모아 넣음</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>收容: 수용, 거둘 수, 얼굴 용</t>
+        </is>
+      </c>
+      <c r="D737" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>丹脣皓齒</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>단순호치: 
+1)「붉은 입술과 하얀 이」란 뜻으로,
+2)여자의 아름다운 얼굴을 이르는 말
+3)미인의 얼굴</t>
+        </is>
+      </c>
+      <c r="D738" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr"/>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D739" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>勸告</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>확고</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>권고</t>
+        </is>
+      </c>
+      <c r="D740" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr"/>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D741" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>15시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>勸告</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>확고</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>권고</t>
+        </is>
+      </c>
+      <c r="D742" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>15시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>看做</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>간호</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>간주</t>
+        </is>
+      </c>
+      <c r="D743" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>범법자, 포로, 난민, 관객, 물품 따위를 일정한 장소나 시설에 모아 넣음</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr"/>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>收容: 수용, 거둘 수, 얼굴 용</t>
+        </is>
+      </c>
+      <c r="D744" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr"/>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D745" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>勸告</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>확고</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>권고</t>
+        </is>
+      </c>
+      <c r="D746" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>통탄</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>通歎</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>痛歎: (아플 통, 통탄할 탄): 몹시 탄식함. 또는 그런 탄식</t>
+        </is>
+      </c>
+      <c r="D747" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>15시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>摘出</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr"/>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>적출: 딸 적, 날 출</t>
+        </is>
+      </c>
+      <c r="D748" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>15시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr"/>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D749" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>15시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>踏査</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr"/>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>답사: 踏 밟을 답/ 査 조사할 사, 현장에 가서 직접 보고 조사함</t>
+        </is>
+      </c>
+      <c r="D750" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>15시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>晩時之歎</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>고굉지신</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>만시지탄: 
+「때늦은 한탄」
+「시기가 늦어 기회를 놓친 것이 원통해서 탄식함」을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D751" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>15시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>箴言</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>간언</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>잠언: 경계 잠, 말씀 언</t>
+        </is>
+      </c>
+      <c r="D752" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>15시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr"/>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D753" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>15시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>郵送</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>타기</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>우송: 우편 우, 보낼 송, 우편으로 보냄</t>
+        </is>
+      </c>
+      <c r="D754" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>15시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr"/>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D755" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>15시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>歪曲</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr"/>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>왜곡: 기울 왜, 굽을 곡, 사실과 다르게 해석하거나 그릇되게 함</t>
+        </is>
+      </c>
+      <c r="D756" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>15시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>放恣</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>仔</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>恣: 放恣 방자(놓을 방 방자할 자)어려워하거나 조심스러워하는 태도가 없이 무례하고 건방짐</t>
+        </is>
+      </c>
+      <c r="D757" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>15시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr"/>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D758" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>15시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr"/>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D759" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>15시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>阿修羅場</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>명약관화</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>아수라장: 언덕 아, 닦을 수, 벌일 라, 마당 장, 싸움이나 그 밖의 다른 일로 큰 혼란에 빠진 곳</t>
+        </is>
+      </c>
+      <c r="D760" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>15시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>주의 :㉠ 마음에 새겨 두고 조심함
+㉡ 어떤 한 곳이나 일에 관심을 집중하여 기울임
+㉢ 경고나 훈계의 뜻으로 일깨움</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>主意</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>注意: (부을 주, 뜻 의)</t>
+        </is>
+      </c>
+      <c r="D761" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>15시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>搨本</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>탁본</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>탑본: 베낄 탑, 근본 본, 비석, 기와, 기물 따위에 새겨진 글씨나 무늬를 종이에 그대로 떠냄</t>
+        </is>
+      </c>
+      <c r="D762" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>15시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>推定</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr"/>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>추정: 밀 추, 정할 정,미루어 생각하여 판정함</t>
+        </is>
+      </c>
+      <c r="D763" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>15시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>多彩性</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr"/>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>다채성: 다채(多彩), 여러 가지 색채나 형태, 종류 따위가 어울리어 호화스러움</t>
+        </is>
+      </c>
+      <c r="D764" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>15시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>정면으로 맞서 싸움을 걺</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>逃戰</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>挑戰: 逃戰(X)→挑戰(돋울 도, 싸울 전)(O)*逃: 달아날 도</t>
+        </is>
+      </c>
+      <c r="D765" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>15시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>秋涼</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr"/>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>추량: 가을 추, 서늘할 량, 가을은 서늘하여</t>
+        </is>
+      </c>
+      <c r="D766" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>15시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>蔑視</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr"/>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>멸시: 업신여길 멸, 볼 시, 업신여기거나 하찮게 여겨 깔봄</t>
+        </is>
+      </c>
+      <c r="D767" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>15시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr"/>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D768" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>15시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>內訌</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>내공</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>내홍: (안 내, 어지러울 홍), 집단이나 조직의 내부에서 자기들끼리 일으킨 분쟁</t>
+        </is>
+      </c>
+      <c r="D769" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>15시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>朱抹</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr"/>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>주말: 朱 붉을 주 抹 지울 말, (글자를)붉은 물을 묻힌 붓으로 지움</t>
+        </is>
+      </c>
+      <c r="D770" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>15시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr"/>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D771" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>15시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>朱抹</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr"/>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>주말: 朱 붉을 주 抹 지울 말, (글자를)붉은 물을 묻힌 붓으로 지움</t>
+        </is>
+      </c>
+      <c r="D772" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>15시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>論題</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr"/>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>논제: 논설이나 논문, 토론 따위의 주제나 제목</t>
+        </is>
+      </c>
+      <c r="D773" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>15시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>樂園</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr"/>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>낙승: 즐거울 (낙)동산 (원), 아무런 걱정이나 부족함이 없이 살 수 있는 즐거운 곳</t>
+        </is>
+      </c>
+      <c r="D774" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>15시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>敎養</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr"/>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>교양: 敎 가르칠 교, 養 기를 양</t>
+        </is>
+      </c>
+      <c r="D775" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>15시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>論題</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>논증</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>논제: 논설이나 논문, 토론 따위의 주제나 제목</t>
+        </is>
+      </c>
+      <c r="D776" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>15시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>朱抹</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>미래</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>주말: 朱 붉을 주 抹 지울 말, (글자를)붉은 물을 묻힌 붓으로 지움</t>
+        </is>
+      </c>
+      <c r="D777" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>15시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr"/>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D778" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>15시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>사이에 다른 것이 개입되지 않고 직접 연결됨</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>直決</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>直結:
+직결(直決, 곧을 직, 결단할 결)
+직결(直結, 곧을 직, 맺을 결)</t>
+        </is>
+      </c>
+      <c r="D779" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>15시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>論題</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>논증</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>논제: 논설이나 논문, 토론 따위의 주제나 제목</t>
+        </is>
+      </c>
+      <c r="D780" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>15시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>직결</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D781" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>15시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>朱抹</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr"/>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>주말: 朱 붉을 주 抹 지울 말, (글자를)붉은 물을 묻힌 붓으로 지움</t>
+        </is>
+      </c>
+      <c r="D782" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>15시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>確執</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr"/>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>확집: 자기의 의견을 굳이 고집하여 양보하지 아니함</t>
+        </is>
+      </c>
+      <c r="D783" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>15시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>地境</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr"/>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>지경: 地(땅 지)境(지경 경), 나라나 지역 따위의 구간을 가르는 경계. / 일정한 테두리 안의 땅. / ‘경우’나 ‘형편’, ‘정도’</t>
+        </is>
+      </c>
+      <c r="D784" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>15시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr"/>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D785" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>15시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>朱抹</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr"/>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>주말: 朱 붉을 주 抹 지울 말, (글자를)붉은 물을 묻힌 붓으로 지움</t>
+        </is>
+      </c>
+      <c r="D786" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>15시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr"/>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D787" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>15시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>確執</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr"/>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>확집: 자기의 의견을 굳이 고집하여 양보하지 아니함</t>
+        </is>
+      </c>
+      <c r="D788" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>15시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>地境</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr"/>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>지경: 地(땅 지)境(지경 경), 나라나 지역 따위의 구간을 가르는 경계. / 일정한 테두리 안의 땅. / ‘경우’나 ‘형편’, ‘정도’</t>
+        </is>
+      </c>
+      <c r="D789" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>15시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>論題</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>논증</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>논제: 논설이나 논문, 토론 따위의 주제나 제목</t>
+        </is>
+      </c>
+      <c r="D790" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>15시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D791" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>15시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>동정서벌</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>東征西罰</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>東征西伐: (동녘 동, 칠 정, 서녘 서, 칠 벌): 동쪽을 정복하고 서쪽을 친다는 뜻으로, 이리저리로 여러 나라를 정벌함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D792" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>15시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>朱抹</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>확집</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>주말: 朱 붉을 주 抹 지울 말, (글자를)붉은 물을 묻힌 붓으로 지움</t>
+        </is>
+      </c>
+      <c r="D793" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr"/>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D794" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>確執</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr"/>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>확집: 자기의 의견을 굳이 고집하여 양보하지 아니함</t>
+        </is>
+      </c>
+      <c r="D795" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr"/>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D796" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>形象</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>현상</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>형상: 形(모양 형)象(코끼리 상), 사물의 생긴 모양이나 상태. / 마음과 감각에 의하여 떠오르는 대상의 모습을 떠올리거나 표현함. 또는 그런 형태</t>
+        </is>
+      </c>
+      <c r="D797" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>朱抹</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr"/>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>주말: 朱 붉을 주 抹 지울 말, (글자를)붉은 물을 묻힌 붓으로 지움</t>
+        </is>
+      </c>
+      <c r="D798" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr"/>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D799" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>경건</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D800" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>行列</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>행렬</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>항렬: 항렬 항, 벌릴 렬</t>
+        </is>
+      </c>
+      <c r="D801" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>朱抹</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>확집</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>주말: 朱 붉을 주 抹 지울 말, (글자를)붉은 물을 묻힌 붓으로 지움</t>
+        </is>
+      </c>
+      <c r="D802" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>16시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr"/>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D803" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>16시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr"/>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D804" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>16시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr"/>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D805" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>16시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr"/>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D806" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>16시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr"/>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D807" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr"/>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D808" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>痛歎</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr"/>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>통탄: (아플 통, 통탄할 탄): 몹시 탄식함. 또는 그런 탄식</t>
+        </is>
+      </c>
+      <c r="D809" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>宏闊</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr"/>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>굉활: (클 굉, 넓을 활)사방으로 두루 넓음</t>
+        </is>
+      </c>
+      <c r="D810" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr"/>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D811" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr"/>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D812" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>16시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr"/>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D813" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>16시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>朱抹</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr"/>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>주말: 朱 붉을 주 抹 지울 말, (글자를)붉은 물을 묻힌 붓으로 지움</t>
+        </is>
+      </c>
+      <c r="D814" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>16시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>처음부터 끝까지 훑어 읽음</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr"/>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>通讀:
+통독(通讀): 처음부터 끝까지 훑어 읽음
+통독(統督): 모두 관할하여 감독함</t>
+        </is>
+      </c>
+      <c r="D815" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>16시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr"/>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D816" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>16시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr"/>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D817" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>16시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr"/>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D818" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>16시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr"/>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D819" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>16시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr"/>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D820" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>16시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>復權</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr"/>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>복권: 회복할 복, 권세 권</t>
+        </is>
+      </c>
+      <c r="D821" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>16시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>復權</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>경건</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>복권: 회복할 복, 권세 권</t>
+        </is>
+      </c>
+      <c r="D822" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>16시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr"/>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D823" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>16시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr"/>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D824" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr"/>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D825" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>賂物</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr"/>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>뇌물: 뇌물 뇌, 물건 물</t>
+        </is>
+      </c>
+      <c r="D826" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>중독 : 술이나 마약 따위를 지나치게 복용한 결과, 그것 없이는 견디지 못하는 병적 상태</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>重毒</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>中毒: 가운데 중, 독 독</t>
+        </is>
+      </c>
+      <c r="D827" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>纏足</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr"/>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>전족: 얽을 전, 발 족, 중국의 옛 풍습의 하나</t>
+        </is>
+      </c>
+      <c r="D828" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>復權</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr"/>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>복권: 회복할 복, 권세 권</t>
+        </is>
+      </c>
+      <c r="D829" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr"/>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D830" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr"/>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D831" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>賂物</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr"/>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>뇌물: 뇌물 뇌, 물건 물</t>
+        </is>
+      </c>
+      <c r="D832" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr"/>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D833" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>16시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>賂物</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr"/>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>뇌물: 뇌물 뇌, 물건 물</t>
+        </is>
+      </c>
+      <c r="D834" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>16시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr"/>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D835" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>16시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr"/>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D836" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>16시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr"/>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D837" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>16시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr"/>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D838" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>16시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr"/>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D839" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>復權</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>경건</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>복권: 회복할 복, 권세 권</t>
+        </is>
+      </c>
+      <c r="D840" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr"/>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D841" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr"/>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D842" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D843" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D844" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>16시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>好轉</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr"/>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>호전: 좋을 호, 구를 전, 일의 형세가 좋은 쪽으로 바뀜</t>
+        </is>
+      </c>
+      <c r="D845" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>16시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>愁愁</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr"/>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>수수: 근심 수, 근심 수</t>
+        </is>
+      </c>
+      <c r="D846" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>16시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>용처 : 떳떳할 용, 곳 처</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>用處</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>庸處</t>
+        </is>
+      </c>
+      <c r="D847" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>16시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>兼愛</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr"/>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>겸애: (겸할 겸, 사랑 애), 가리지 않고 모든 사람을 똑같이 두루 사랑함</t>
+        </is>
+      </c>
+      <c r="D848" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>16시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>兼愛</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr"/>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>겸애: (겸할 겸, 사랑 애), 가리지 않고 모든 사람을 똑같이 두루 사랑함</t>
+        </is>
+      </c>
+      <c r="D849" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>16시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>그는 수많은 곡절(曲折)을 겪은 후 대통령이 되었다</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>曲絶</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>曲折</t>
+        </is>
+      </c>
+      <c r="D850" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>16시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D851" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>16시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D852" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>16시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr"/>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D853" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>16시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>협찬: 힘을 합하여 도움</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>協奏</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>協贊: 화합할 협, 도울 찬</t>
+        </is>
+      </c>
+      <c r="D854" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>16시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>掃蕩</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>소통</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="D855" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>16시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr"/>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D856" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>16시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr"/>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D857" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>16시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>規範性</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr"/>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>규범성: 규범(規範),인간이 행동하거나 판단할 때에 마땅히 따르고 지켜야 할 가치 판단의 기준</t>
+        </is>
+      </c>
+      <c r="D858" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>16시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>掃除</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>소탕</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>소제: 쓸 소, 덜 제</t>
+        </is>
+      </c>
+      <c r="D859" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>16시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>規範性</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr"/>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>규범성: 규범(規範),인간이 행동하거나 판단할 때에 마땅히 따르고 지켜야 할 가치 판단의 기준</t>
+        </is>
+      </c>
+      <c r="D860" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>16시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>糠粃</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr"/>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>강비: (겨 강, 쭉정이 비)겨와 쭉정이라는 뜻으로, 거친 식사를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D861" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>16시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>敬意</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr"/>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>경의: 공경 경, 뜻 의, 존경하는 뜻</t>
+        </is>
+      </c>
+      <c r="D862" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>16시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>비견</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D863" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>16시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>比較</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>비견</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>비교</t>
+        </is>
+      </c>
+      <c r="D864" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>16시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>日照</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr"/>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>일조: 햇볕이 내리쬠</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
         <is>
           <t>20230403</t>
         </is>
       </c>
-      <c r="E687" t="inlineStr">
-        <is>
-          <t>14시 43분</t>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>16시 43분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E865"/>
+  <dimension ref="A1:E1254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20229,14 +20229,8685 @@
           <t>일조: 햇볕이 내리쬠</t>
         </is>
       </c>
-      <c r="D865" t="inlineStr">
-        <is>
-          <t>20230403</t>
-        </is>
+      <c r="D865" t="n">
+        <v>20230403</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
           <t>16시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>行星</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr"/>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>행성: (行星: 다닐 행/별 성): 중심 별의 강한 인력의 영향으로 타원 궤도를 그리며 중심 별의 주위를 도는 천체</t>
+        </is>
+      </c>
+      <c r="D866" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>13시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>復活</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr"/>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>부활: 다시(부)살(활), 죽었다가 ‘다시’ 살아난다</t>
+        </is>
+      </c>
+      <c r="D867" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>13시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr"/>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D868" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>13시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>設置</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr"/>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>설치: (베풀 설, 둘 치), 어떤 일을 하는 데 필요한 기관이나 설비 따위를 베풀어 둠</t>
+        </is>
+      </c>
+      <c r="D869" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>13시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>設置</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr"/>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>설치: (베풀 설, 둘 치), 어떤 일을 하는 데 필요한 기관이나 설비 따위를 베풀어 둠</t>
+        </is>
+      </c>
+      <c r="D870" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>13시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>奢侈</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr"/>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>사치: 사치할 사, 사치할 치</t>
+        </is>
+      </c>
+      <c r="D871" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>13시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>서점</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>冊使</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>冊肆:
+책사(冊肆: 책 책, 방자할 사): 서점
+책사(冊絲: 책 책, 실 사): 책을 매는 데 쓰는 실
+책사(冊使: 책 책, 하여금 사)</t>
+        </is>
+      </c>
+      <c r="D872" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>13시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>未達</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr"/>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>미달: 아닐 미, 통달할 달</t>
+        </is>
+      </c>
+      <c r="D873" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>13시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>甚至於</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr"/>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>심지어</t>
+        </is>
+      </c>
+      <c r="D874" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>13시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>未達</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr"/>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>미달: 아닐 미, 통달할 달</t>
+        </is>
+      </c>
+      <c r="D875" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>13시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>設置</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr"/>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>설치: (베풀 설, 둘 치), 어떤 일을 하는 데 필요한 기관이나 설비 따위를 베풀어 둠</t>
+        </is>
+      </c>
+      <c r="D876" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>13시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>奢侈</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr"/>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>사치: 사치할 사, 사치할 치</t>
+        </is>
+      </c>
+      <c r="D877" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>13시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>서점</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>冊使</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>冊肆:
+책사(冊肆: 책 책, 방자할 사): 서점
+책사(冊絲: 책 책, 실 사): 책을 매는 데 쓰는 실
+책사(冊使: 책 책, 하여금 사)</t>
+        </is>
+      </c>
+      <c r="D878" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>13시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>灌注</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr"/>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>관주: 물댈 괄, 부을 주, 물이 흘러 들어감</t>
+        </is>
+      </c>
+      <c r="D879" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>13시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>歇價</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>알현</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>헐가: =헐값(헐가, 헐값 모두 표준어)</t>
+        </is>
+      </c>
+      <c r="D880" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>13시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>供給</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr"/>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>공급: 이바지할 공, 줄 급, 요구나 필요에 따라 물품 따위를 제공함</t>
+        </is>
+      </c>
+      <c r="D881" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>13시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>歇價</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr"/>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>헐가: =헐값(헐가, 헐값 모두 표준어)</t>
+        </is>
+      </c>
+      <c r="D882" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>13시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>洞察</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr"/>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>통찰: 밝을 통, 살필 찰</t>
+        </is>
+      </c>
+      <c r="D883" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>13시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>模糊性</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr"/>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>모호성: 모호(模糊), 흐리어 똑똑하지 못함</t>
+        </is>
+      </c>
+      <c r="D884" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>13시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>돈을 돌려서 꾸어 주거나 꾸어 쓴다는 뜻</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>就貸</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>取貸: 취대(取貸 , 취할 취, 빌릴 대)</t>
+        </is>
+      </c>
+      <c r="D885" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>13시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>歇價</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr"/>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>헐가: =헐값(헐가, 헐값 모두 표준어)</t>
+        </is>
+      </c>
+      <c r="D886" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>13시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>時急</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr"/>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>시급: 時 때 시/ 急 급할 급, 시각을 다툴 만큼 몹시 절박하고 급하다</t>
+        </is>
+      </c>
+      <c r="D887" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>13시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>結局</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr"/>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>결국: 맺을 결, 판 국</t>
+        </is>
+      </c>
+      <c r="D888" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>13시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr"/>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>건축: 세울 건, 쌓을 축</t>
+        </is>
+      </c>
+      <c r="D889" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>13시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>於此彼</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr"/>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>어차피</t>
+        </is>
+      </c>
+      <c r="D890" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>13시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>波瀾</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr"/>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>파란: 물결 파 / 물결 란, 순탄하지 아니하고 어수선하게 계속되는 여러 가지 어려움이나 시련</t>
+        </is>
+      </c>
+      <c r="D891" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>13시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>結局</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr"/>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>결국: 맺을 결, 판 국</t>
+        </is>
+      </c>
+      <c r="D892" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>13시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>歇價</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr"/>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>헐가: =헐값(헐가, 헐값 모두 표준어)</t>
+        </is>
+      </c>
+      <c r="D893" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>13시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>於此彼</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>오히려</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>어차피</t>
+        </is>
+      </c>
+      <c r="D894" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>13시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>波瀾</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr"/>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>파란: 물결 파 / 물결 란, 순탄하지 아니하고 어수선하게 계속되는 여러 가지 어려움이나 시련</t>
+        </is>
+      </c>
+      <c r="D895" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>13시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>匡正</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>과장</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>광정</t>
+        </is>
+      </c>
+      <c r="D896" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>13시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>爛漫</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>파란</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>난만: 爛 빛날(문드러질)난/漫 흩어질 만, 1. 꽃이 활짝 많이 피어 화려함 2. 광채가 강하고 선명함</t>
+        </is>
+      </c>
+      <c r="D897" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>13시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>歇價</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr"/>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>헐가: =헐값(헐가, 헐값 모두 표준어)</t>
+        </is>
+      </c>
+      <c r="D898" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>13시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>서막</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D899" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>13시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>蔓延</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr"/>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>만연: 덩굴 만, 늘일 연, 널리 번지어 퍼짐</t>
+        </is>
+      </c>
+      <c r="D900" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>13시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>濃厚</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr"/>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>농후: 짙을 농, 두터울 후, 어떤 경향이나 기색 따위가 뚜렷하다</t>
+        </is>
+      </c>
+      <c r="D901" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>13시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>여럿이 모여 의논함</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>懷疑</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>會議: 회의(會모일 회, 議의논할 의)</t>
+        </is>
+      </c>
+      <c r="D902" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>13시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>盟誓</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr"/>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>맹세:(맹세할 맹, 맹세할 세)일정한 약속이나 목표를 꼭 실천하겠다고 다짐함</t>
+        </is>
+      </c>
+      <c r="D903" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>13시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>闡發</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr"/>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>천발: 밝힐 천, 필 발, 드러내어 밝힘</t>
+        </is>
+      </c>
+      <c r="D904" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>13시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>필요 이상의 돈이나 물건을 쓰거나 분수에 지나친 생활을 함</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>奢移</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>奢侈:
+사치(奢移, 사치할 사, 크게 할 치)
+사치(奢侈, 사치할 사, 사치할 치)</t>
+        </is>
+      </c>
+      <c r="D905" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>13시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>歇價</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr"/>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>헐가: =헐값(헐가, 헐값 모두 표준어)</t>
+        </is>
+      </c>
+      <c r="D906" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>13시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>木葉</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>목집</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>목엽: 나무 목, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D907" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>13시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>象嵌</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>상가</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>상감: 코끼리 상/산골짜기 감, 금속·도자기·목재 따위 겉면에 여러 가지 무늬를 파고 그 속에 같은 모양의 다른 재료를 박아 넣는 기술. 또는 그렇게 해서 만든 작품</t>
+        </is>
+      </c>
+      <c r="D908" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>13시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr"/>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D909" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>13시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr"/>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D910" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>13시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>盟誓</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr"/>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>맹세:(맹세할 맹, 맹세할 세)일정한 약속이나 목표를 꼭 실천하겠다고 다짐함</t>
+        </is>
+      </c>
+      <c r="D911" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>13시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>提高</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr"/>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>제고: 提끌 제 高높을 고, 쳐들어 높임</t>
+        </is>
+      </c>
+      <c r="D912" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>13시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr"/>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D913" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>14시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr"/>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D914" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>14시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>歇價</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr"/>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>헐가: =헐값(헐가, 헐값 모두 표준어)</t>
+        </is>
+      </c>
+      <c r="D915" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>14시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr"/>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D916" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>14시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr"/>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D917" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>14시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>토의(討議)는 최적의 해결 방안을 선택하기 위한 공동의 사고 과정이다</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>討義</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>討議</t>
+        </is>
+      </c>
+      <c r="D918" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>14시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr"/>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D919" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>14시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr"/>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D920" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>14시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>發送</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr"/>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>발송: 필 발, 보낼 송, 물건, 편지, 서류 따위를 우편이나 운송 수단을 이용하여 보냄</t>
+        </is>
+      </c>
+      <c r="D921" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>14시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>口腹</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr"/>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>구복: (입 구, 배 복)먹고살기 위하여 음식물을 섭취하는 입과 배</t>
+        </is>
+      </c>
+      <c r="D922" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>14시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>呵責</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>직책</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>가책</t>
+        </is>
+      </c>
+      <c r="D923" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>14시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>희박</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D924" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>14시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr"/>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D925" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>14시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr"/>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D926" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>14시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr"/>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D927" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>14시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>일이 거침 없이 잘 되어 나감/ 규각이 없고 원만함</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>圓闊</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>圓滑:
+원활(圓闊 둥글 원, 트일 활)(X)
+원활(圓滑 둥글 원, 미끄러질 활)(O</t>
+        </is>
+      </c>
+      <c r="D928" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>14시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>중요한 깃발의 위에 달던 좁고 긴 띠</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>期待</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>旗帶: 기대, 기 기, 띠 대</t>
+        </is>
+      </c>
+      <c r="D929" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>14시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr"/>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D930" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>14시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>前揭</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr"/>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>전게: 앞 전, 걸 게</t>
+        </is>
+      </c>
+      <c r="D931" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>14시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr"/>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D932" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>14시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>변명</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>辯明</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>辨明</t>
+        </is>
+      </c>
+      <c r="D933" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>14시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>色難</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr"/>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>색난: (빛 색, 어려울 난)
+1. 자식이 늘 부드러운 얼굴빛으로 부모를 섬기기는 어려움을 이르는 말
+2. 자식이 부모의 얼굴빛을 보고 그 뜻에 맞게 봉양하기는 어려움을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D934" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>14시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>展望</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr"/>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>전망</t>
+        </is>
+      </c>
+      <c r="D935" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>14시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>狷介</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>견개: 狷 성급할 견/介 낄(낱)개, 굳게 절개를 지키고 구차하게 타협하지 아니함</t>
+        </is>
+      </c>
+      <c r="D936" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>14시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>唯獨</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr"/>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>유독: 많은 것 가운데 홀로 두드러지게</t>
+        </is>
+      </c>
+      <c r="D937" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>14시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr"/>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D938" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>14시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr"/>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D939" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>唯獨</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr"/>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>유독: 많은 것 가운데 홀로 두드러지게</t>
+        </is>
+      </c>
+      <c r="D940" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>鄙陋</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr"/>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>비루: 더러울 비, 더러울 루, 행동이나 성질이 너절하며 더럽고</t>
+        </is>
+      </c>
+      <c r="D941" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>掛念</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr"/>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>괘념: 마음에 두고 걱정하거나 잊지 않음</t>
+        </is>
+      </c>
+      <c r="D942" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr"/>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D943" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D944" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>14시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>敎條</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr"/>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>교조: (가르칠 교, 가지 조), 역사적 환경이나 구체적 현실과 관계없이 어떠한 상황에서도 절대로 변하지 않는 진리인 듯 믿고 따르는 것</t>
+        </is>
+      </c>
+      <c r="D945" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>14시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>氣焰</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr"/>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>기염: (氣 기운 기, 焰 불꽃 염), 불꽃처럼 대단한 기세</t>
+        </is>
+      </c>
+      <c r="D946" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>14시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>처음부터 끝까지 훑어 읽음</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>統督</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>通讀:
+통독(通讀): 처음부터 끝까지 훑어 읽음
+통독(統督): 모두 관할하여 감독함</t>
+        </is>
+      </c>
+      <c r="D947" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>14시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr"/>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D948" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>14시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr"/>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D949" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>14시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>看護</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr"/>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>간호</t>
+        </is>
+      </c>
+      <c r="D950" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>14시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr"/>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D951" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>14시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr"/>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D952" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>14시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>糊塗</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr"/>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>호도: 경망스럽게 떠벌림, 명확하게 결말을 내지 않고 일시적으로 감추거나 흐지부지 덮어 버림을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D953" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>14시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>濫用</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>감용</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>남용: 濫 넘칠 남/ 用 쓸 용, 일정한 기준이나 한도를 넘어서 함부로 씀</t>
+        </is>
+      </c>
+      <c r="D954" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>14시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>糊塗</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr"/>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>호도: 경망스럽게 떠벌림, 명확하게 결말을 내지 않고 일시적으로 감추거나 흐지부지 덮어 버림을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D955" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>14시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D956" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>14시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr"/>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D957" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>14시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>設置</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr"/>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>설치: (베풀 설, 둘 치), 어떤 일을 하는 데 필요한 기관이나 설비 따위를 베풀어 둠</t>
+        </is>
+      </c>
+      <c r="D958" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>14시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr"/>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D959" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>14시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>準備</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr"/>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>준비: 준할 준, 갖출 비</t>
+        </is>
+      </c>
+      <c r="D960" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>14시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>糊塗</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr"/>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>호도: 경망스럽게 떠벌림, 명확하게 결말을 내지 않고 일시적으로 감추거나 흐지부지 덮어 버림을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D961" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>14시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr"/>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D962" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>14시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr"/>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D963" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>14시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>糊塗</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr"/>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>호도: 경망스럽게 떠벌림, 명확하게 결말을 내지 않고 일시적으로 감추거나 흐지부지 덮어 버림을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D964" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>14시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>기해</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D965" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>14시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>建築</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>건집</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>건축: 세울 건, 쌓을 축</t>
+        </is>
+      </c>
+      <c r="D966" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>14시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>호도</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D967" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>14시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>拔萃</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr"/>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>발췌: 책이나 글 따위에서 필요하거나 중요한 부분을 가려 뽑아냄</t>
+        </is>
+      </c>
+      <c r="D968" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>14시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>蘊蓄</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr"/>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>온축: 쌓을 온, 모을 축, 속에 깊이 쌓아 둠 / 오랫동안 학식 따위를 많이 쌓음</t>
+        </is>
+      </c>
+      <c r="D969" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>14시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr"/>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D970" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>14시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>蘊蓄</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr"/>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>온축: 쌓을 온, 모을 축, 속에 깊이 쌓아 둠 / 오랫동안 학식 따위를 많이 쌓음</t>
+        </is>
+      </c>
+      <c r="D971" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>14시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>拔萃</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr"/>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>발췌: 책이나 글 따위에서 필요하거나 중요한 부분을 가려 뽑아냄</t>
+        </is>
+      </c>
+      <c r="D972" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>14시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr"/>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D973" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>14시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>변명</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>辯明</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>辨明</t>
+        </is>
+      </c>
+      <c r="D974" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>14시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>하루아침이라는 뜻으로 갑작스럽게 짧은 사이를 이르는 말이다</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>日朝</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>一朝</t>
+        </is>
+      </c>
+      <c r="D975" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr"/>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D976" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr"/>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D977" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>降等</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr"/>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>하강: 내릴(강)가지런할(등), 등급이나 계급을 내린다</t>
+        </is>
+      </c>
+      <c r="D978" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr"/>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D979" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>14시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr"/>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D980" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>14시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>降等</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr"/>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>하강: 내릴(강)가지런할(등), 등급이나 계급을 내린다</t>
+        </is>
+      </c>
+      <c r="D981" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>14시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>拔萃</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr"/>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>발췌: 책이나 글 따위에서 필요하거나 중요한 부분을 가려 뽑아냄</t>
+        </is>
+      </c>
+      <c r="D982" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>14시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>冒頭</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>모험</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>모두: 冒(무릅쓸 모)頭(머리 두)말이나 글의 첫머리</t>
+        </is>
+      </c>
+      <c r="D983" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>14시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>敬虔</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr"/>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>경건: (공경할 경, 정성 건), 공경하며 삼가고 엄숙하다</t>
+        </is>
+      </c>
+      <c r="D984" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>14시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>降等</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr"/>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>하강: 내릴(강)가지런할(등), 등급이나 계급을 내린다</t>
+        </is>
+      </c>
+      <c r="D985" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>14시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr"/>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D986" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>14시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr"/>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D987" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>14시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>秋涼</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr"/>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>추량: 가을 추, 서늘할 량, 가을은 서늘하여</t>
+        </is>
+      </c>
+      <c r="D988" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>14시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr"/>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D989" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>14시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>降等</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr"/>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>하강: 내릴(강)가지런할(등), 등급이나 계급을 내린다</t>
+        </is>
+      </c>
+      <c r="D990" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>14시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr"/>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D991" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>14시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>喊聲</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr"/>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>함성: (喊聲: 소리칠 함, 소리 성): 여러 사람이 함께 외치거나 지르는 소리</t>
+        </is>
+      </c>
+      <c r="D992" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>14시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>降等</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>비책</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>하강: 내릴(강)가지런할(등), 등급이나 계급을 내린다</t>
+        </is>
+      </c>
+      <c r="D993" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>14시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr"/>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D994" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr"/>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D995" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>喊聲</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr"/>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>함성: (喊聲: 소리칠 함, 소리 성): 여러 사람이 함께 외치거나 지르는 소리</t>
+        </is>
+      </c>
+      <c r="D996" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>14시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>그것은 ㉡학문(學問)으로서 또는 통치자의 ㉢교양(敎養)으로서는 유교를 ㉣수용(受容)했지만 일상 생활을 규정하는 예로서는 유교를 수용하지 않았다는 뜻일 것이다</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>學文</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>學問: 問 물을 문, 文 글월 문</t>
+        </is>
+      </c>
+      <c r="D997" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>14시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr"/>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D998" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>14시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>喊聲</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr"/>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>함성: (喊聲: 소리칠 함, 소리 성): 여러 사람이 함께 외치거나 지르는 소리</t>
+        </is>
+      </c>
+      <c r="D999" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>14시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>降等</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr"/>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>강등: 내릴(강)가지런할(등), 등급이나 계급을 내린다</t>
+        </is>
+      </c>
+      <c r="D1000" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>14시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr"/>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D1001" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>14시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>積層的</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr"/>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>적층적: 층층이 쌓임</t>
+        </is>
+      </c>
+      <c r="D1002" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>14시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>喊聲</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>강등</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>함성: (喊聲: 소리칠 함, 소리 성): 여러 사람이 함께 외치거나 지르는 소리</t>
+        </is>
+      </c>
+      <c r="D1003" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr"/>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D1004" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>降等</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>비책</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>강등: 내릴(강)가지런할(등), 등급이나 계급을 내린다</t>
+        </is>
+      </c>
+      <c r="D1005" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr"/>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D1006" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>發送</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr"/>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>발송: 필 발, 보낼 송, 물건, 편지, 서류 따위를 우편이나 운송 수단을 이용하여 보냄</t>
+        </is>
+      </c>
+      <c r="D1007" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>纖細</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr"/>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>섬세: 섬세하다, 1. 곱고 가늘다. 2. 매우 찬찬하고 세밀하다</t>
+        </is>
+      </c>
+      <c r="D1008" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>發送</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr"/>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>발송: 필 발, 보낼 송, 물건, 편지, 서류 따위를 우편이나 운송 수단을 이용하여 보냄</t>
+        </is>
+      </c>
+      <c r="D1009" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr"/>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D1010" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>纖細</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr"/>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>섬세: 섬세하다, 1. 곱고 가늘다. 2. 매우 찬찬하고 세밀하다</t>
+        </is>
+      </c>
+      <c r="D1011" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>降等</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>상등</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>강등: 내릴(강)가지런할(등), 등급이나 계급을 내린다</t>
+        </is>
+      </c>
+      <c r="D1012" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>喊聲</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr"/>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>함성: (喊聲: 소리칠 함, 소리 성): 여러 사람이 함께 외치거나 지르는 소리</t>
+        </is>
+      </c>
+      <c r="D1013" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>沈滯</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>심책</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>침체: (沈 잠길 침, 滯 막힐 체): 어떤 현상이나 사물이 진전하지 못하고 제자리에 머무름</t>
+        </is>
+      </c>
+      <c r="D1014" t="n">
+        <v>20230404</v>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>14시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>降等</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr"/>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>강등: 내릴(강)가지런할(등), 등급이나 계급을 내린다</t>
+        </is>
+      </c>
+      <c r="D1015" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>喊聲</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>잠언</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>함성: (喊聲: 소리칠 함, 소리 성): 여러 사람이 함께 외치거나 지르는 소리</t>
+        </is>
+      </c>
+      <c r="D1016" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr"/>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D1017" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>纖細</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>섬세: 섬세하다, 1. 곱고 가늘다. 2. 매우 찬찬하고 세밀하다</t>
+        </is>
+      </c>
+      <c r="D1018" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr"/>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D1019" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr"/>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D1020" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr"/>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D1021" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>喊聲</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr"/>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>함성: (喊聲: 소리칠 함, 소리 성): 여러 사람이 함께 외치거나 지르는 소리</t>
+        </is>
+      </c>
+      <c r="D1022" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>降等</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr"/>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>강등: 내릴(강)가지런할(등), 등급이나 계급을 내린다</t>
+        </is>
+      </c>
+      <c r="D1023" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>孤孑單身</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>단표누항</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>고혈단신: 혈육이 없는 외로운 신세</t>
+        </is>
+      </c>
+      <c r="D1024" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>帶同</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>제동</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>대동: (데리고 다닐 대, 함께 동)함께 데리고 감</t>
+        </is>
+      </c>
+      <c r="D1025" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>附隨的</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr"/>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>부수적: 붙을 부, 따를 수, 과녁 적, 주된 것이나 기본적인 것에 붙어서 따르는. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D1026" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>邁進</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>추진</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>매진: 갈 매, 나아갈 진</t>
+        </is>
+      </c>
+      <c r="D1027" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>龜裂</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>귀열</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>균열: 터질 균, 찢을 열</t>
+        </is>
+      </c>
+      <c r="D1028" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>천구 위에서 서로의 상대 위치를 바꾸지 아니하고 별자리를 구성하는 별</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>亢星</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>恒星:
+亢星(별이름 항/별 성): 이십팔수의 둘째 별자리에 있는 별들
+恒星(항상 항/星별 성): 천구 위에서 서로의 상대 위치를 바꾸지 아니하고 별자리를 구성하는 별</t>
+        </is>
+      </c>
+      <c r="D1029" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>묵묵히 마음속으로 생각하는 것</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>墨床</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>默想:
+默想: 잠잠할 묵/생각 상
+墨床: 먹 묵/평상 상: 먹을 올려 놓는 받침, 먹받침</t>
+        </is>
+      </c>
+      <c r="D1030" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1030" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>樹葉</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr"/>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>수엽: 나무 수, 잎 엽, 나뭇잎</t>
+        </is>
+      </c>
+      <c r="D1031" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>司正</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr"/>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>사정: 맡을 사, 바를 정, 그릇된 일을 다스려 바로잡음</t>
+        </is>
+      </c>
+      <c r="D1032" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>好轉</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr"/>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>호전: 좋을 호, 구를 전, 일의 형세가 좋은 쪽으로 바뀜</t>
+        </is>
+      </c>
+      <c r="D1033" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>의심을 품음</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>會議</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>懷疑: 회의(懷품을 회, 疑의심할 의)</t>
+        </is>
+      </c>
+      <c r="D1034" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr"/>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D1035" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>辭呈</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>재량</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>사정: 辭 말씀 사/ 呈 드릴 정, 벼슬아치가 벼슬을 그만두거나 말미를 받기 위하여 청원서를 내던 일</t>
+        </is>
+      </c>
+      <c r="D1036" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1036" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>灰燼</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr"/>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>회신: 재 회, 불탄 끝 신</t>
+        </is>
+      </c>
+      <c r="D1037" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>悠悠自適</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr"/>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>유유자적 : 속세에 속박됨이 없이 자기가 하고 싶은 대로 마음 편히 지냄</t>
+        </is>
+      </c>
+      <c r="D1038" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>毋論</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>회신</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>무론: (말 무, 논할 론), 말할 것도 없이</t>
+        </is>
+      </c>
+      <c r="D1039" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>論駁</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr"/>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>논박: 어떤 주장이나 의견에 대하여 그 잘못된 점을 조리 있게 공격하여 말함</t>
+        </is>
+      </c>
+      <c r="D1040" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>論駁</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr"/>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>논박: 어떤 주장이나 의견에 대하여 그 잘못된 점을 조리 있게 공격하여 말함</t>
+        </is>
+      </c>
+      <c r="D1041" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>12시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>靜態性</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr"/>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>정태성: 정태(靜態), 움직이지 아니하고 가만히 있는 상태</t>
+        </is>
+      </c>
+      <c r="D1042" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>12시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>收斂</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>위험</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>수렴: 거둘 수 거둘 렴</t>
+        </is>
+      </c>
+      <c r="D1043" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>12시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>遺棄</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr"/>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>유기</t>
+        </is>
+      </c>
+      <c r="D1044" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>12시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr"/>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>화폐: 재물 화, 화폐 폐</t>
+        </is>
+      </c>
+      <c r="D1045" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>12시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>曲盡</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr"/>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>곡진: 곡진하다, 1. 매우 정성스럽다. 2. 매우 자세하고 간곡하다</t>
+        </is>
+      </c>
+      <c r="D1046" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>12시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr"/>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>화폐: 재물 화, 화폐 폐</t>
+        </is>
+      </c>
+      <c r="D1047" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>12시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>論駁</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>논거</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>논박: 어떤 주장이나 의견에 대하여 그 잘못된 점을 조리 있게 공격하여 말함</t>
+        </is>
+      </c>
+      <c r="D1048" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>12시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>遺棄</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr"/>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>유기</t>
+        </is>
+      </c>
+      <c r="D1049" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>12시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr"/>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>화폐: 재물 화, 화폐 폐</t>
+        </is>
+      </c>
+      <c r="D1050" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>12시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>咸池</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>감지</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>함지: 해가 진다고 하는 서쪽의 큰 못↔ 부상(扶桑)</t>
+        </is>
+      </c>
+      <c r="D1051" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>12시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>堆積</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>유기</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>퇴적: 쌓을 퇴, 쌓을 적</t>
+        </is>
+      </c>
+      <c r="D1052" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>12시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr"/>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>화폐: 재물 화, 화폐 폐</t>
+        </is>
+      </c>
+      <c r="D1053" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>12시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>明渡</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr"/>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>명도: 건물, 토지, 선박 따위를 남에게 주거나 맡김</t>
+        </is>
+      </c>
+      <c r="D1054" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>12시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>이번 사태는 특단(特段)의 대책 마련이 필요하다</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>特但</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>特段</t>
+        </is>
+      </c>
+      <c r="D1055" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>12시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>形成</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr"/>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>형성: (모양 형, 이룰 성), 어떤 형상을 이룸</t>
+        </is>
+      </c>
+      <c r="D1056" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>12시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>忖度</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr"/>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>촌탁: 헤아릴 촌, 헤아릴 탁</t>
+        </is>
+      </c>
+      <c r="D1057" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>12시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>擴散</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr"/>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>확산: 넓힐 확, 흩을 산, 흩어져 널리 퍼짐</t>
+        </is>
+      </c>
+      <c r="D1058" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>12시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>의심을 품음</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>會議</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>懷疑: 회의(懷품을 회, 疑의심할 의)</t>
+        </is>
+      </c>
+      <c r="D1059" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>12시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>不肖</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>부상</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>불초</t>
+        </is>
+      </c>
+      <c r="D1060" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1060" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>의심을 품음</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>會議</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>懷疑: 회의(懷품을 회, 疑의심할 의)</t>
+        </is>
+      </c>
+      <c r="D1061" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>介在</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>개임</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>개재: 어떤 것들 사이에 끼여 있음</t>
+        </is>
+      </c>
+      <c r="D1062" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>12시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>妥協</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>협력</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>타협: 온당할 타, 합할 협, 두 편이 서로 좋도록 조정하여 협의함</t>
+        </is>
+      </c>
+      <c r="D1063" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>12시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>色難</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>색란</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>색난: (빛 색, 어려울 난)
+1. 자식이 늘 부드러운 얼굴빛으로 부모를 섬기기는 어려움을 이르는 말
+2. 자식이 부모의 얼굴빛을 보고 그 뜻에 맞게 봉양하기는 어려움을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1064" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>12시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>冒頭</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>모험</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>모두: 冒(무릅쓸 모)頭(머리 두)말이나 글의 첫머리</t>
+        </is>
+      </c>
+      <c r="D1065" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>12시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>遊說</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>유언</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>유세: 놀 유, 달랠 세, 자기 의견 또는 자기 소속 정당의 주장을 선전하며 돌아다님</t>
+        </is>
+      </c>
+      <c r="D1066" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>12시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>死滅性</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>사실적</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>사멸성: 사멸(死滅), 죽어 없어지는 성질</t>
+        </is>
+      </c>
+      <c r="D1067" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>확산</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D1068" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>演行的</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr"/>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>연행적: 배우가 연기를 함</t>
+        </is>
+      </c>
+      <c r="D1069" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>12시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>多彩性</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr"/>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>다채성: 다채(多彩), 여러 가지 색채나 형태, 종류 따위가 어울리어 호화스러움</t>
+        </is>
+      </c>
+      <c r="D1070" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>12시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>多彩性</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>다행성</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>다채성: 다채(多彩), 여러 가지 색채나 형태, 종류 따위가 어울리어 호화스러움</t>
+        </is>
+      </c>
+      <c r="D1071" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>12시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>破天荒(파천황): 이전에 아무도 하지 못한 일을 처음으로 해냄을 이르는 말</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>붕천</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>파천황</t>
+        </is>
+      </c>
+      <c r="D1072" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>12시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>相値</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr"/>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>상치: 서로 상, 값 치, 두 가지 일이 공교롭게 마주침</t>
+        </is>
+      </c>
+      <c r="D1073" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>12시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>여럿이 모여 의논함</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>懷疑</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>會議: 회의(會모일 회, 議의논할 의)</t>
+        </is>
+      </c>
+      <c r="D1074" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>12시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>懈怠</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr"/>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>해태: 게으를 해, 게으를 태, 행동이 느리고 움직이거나 일하기를 싫어하는 태도나 버릇</t>
+        </is>
+      </c>
+      <c r="D1075" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>堅持</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr"/>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>견지: (굳을 견, 가질 지)
+1. 어떤 견해나 입장 따위를 굳게 지니거나 지킴
+2. 굳게 지지함</t>
+        </is>
+      </c>
+      <c r="D1076" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>사신</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>경신: 고칠 경, 새 신</t>
+        </is>
+      </c>
+      <c r="D1077" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>難澁</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr"/>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>난삽: 어려울 난, 떫을 삽, 글이나 말이 매끄럽지 못하면서 어렵고 까다롭다</t>
+        </is>
+      </c>
+      <c r="D1078" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>13시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr"/>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1079" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>13시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>現象(현상) : 인간이 지각할 수 있는, 사물의 모양과 상태</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>형상</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>현상</t>
+        </is>
+      </c>
+      <c r="D1080" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>13시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>積層的</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr"/>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>적층적: 층층이 쌓임</t>
+        </is>
+      </c>
+      <c r="D1081" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>13시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr"/>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D1082" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>13시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>酒煎子</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr"/>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>주전자</t>
+        </is>
+      </c>
+      <c r="D1083" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>나의 실수에 대해 당사자에게 정중하게 사과(謝過)했다</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>詐過</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>謝過:
+詐過(속일 사, 지날 과)(X)
+謝過(사례할 사, 지날 과)(O), 잘못에 대해 용서를 빔</t>
+        </is>
+      </c>
+      <c r="D1084" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>소원 : 행정 관청의 위법 또는 부당한 처분으로 권리와 이익을 침해받을 때에, 그 상급 관청에 대하여 처분의 취소 또는 변경을 청구하는 일</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>所願</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>訴願</t>
+        </is>
+      </c>
+      <c r="D1085" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr"/>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1086" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>사정</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D1087" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>13시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>소원 : 행정 관청의 위법 또는 부당한 처분으로 권리와 이익을 침해받을 때에, 그 상급 관청에 대하여 처분의 취소 또는 변경을 청구하는 일</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>所願</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>訴願</t>
+        </is>
+      </c>
+      <c r="D1088" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>13시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>積層的</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr"/>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>적층적: 층층이 쌓임</t>
+        </is>
+      </c>
+      <c r="D1089" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>13시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>이 선수가 앞으로 한국 신기록을 갱신(更新)할 것으로 기대됩니다</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>경신</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>갱신</t>
+        </is>
+      </c>
+      <c r="D1090" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t>13시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>裁量</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr"/>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>재량: 裁(마를 재)量(헤아릴 량(양))자기의 생각과 판단에 따라 일을 처리함</t>
+        </is>
+      </c>
+      <c r="D1091" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>13시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr"/>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1092" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>13시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>見地</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>현지</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>견지: (볼 견, 땅 지), 어떤 사물을 판단하거나 관찰하는 입장</t>
+        </is>
+      </c>
+      <c r="D1093" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>13시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>妥協</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr"/>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>타협: 온당할 타, 합할 협, 두 편이 서로 좋도록 조정하여 협의함</t>
+        </is>
+      </c>
+      <c r="D1094" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>13시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>견지</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1095" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>13시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>살해</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>역할: 부릴 역, 벨 할</t>
+        </is>
+      </c>
+      <c r="D1096" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>13시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>부활</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>역할: 부릴 역, 벨 할</t>
+        </is>
+      </c>
+      <c r="D1097" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>13시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr"/>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1098" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>13시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>涉獵</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr"/>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>섭렵</t>
+        </is>
+      </c>
+      <c r="D1099" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>13시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>確實</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr"/>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>확실: 굳을 확, 열매 실</t>
+        </is>
+      </c>
+      <c r="D1100" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>13시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>政略的</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr"/>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>정략적</t>
+        </is>
+      </c>
+      <c r="D1101" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t>13시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>技術的</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr"/>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>기술적: 재주 기, 재주 술, 과녁 적, 기술에 관계가 있거나 기술에 의한. 또는 그런 것</t>
+        </is>
+      </c>
+      <c r="D1102" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1102" t="inlineStr">
+        <is>
+          <t>13시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>郵送</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr"/>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>우송: 우편 우, 보낼 송, 우편으로 보냄</t>
+        </is>
+      </c>
+      <c r="D1103" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1103" t="inlineStr">
+        <is>
+          <t>13시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr"/>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1104" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>13시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr"/>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>역할: 부릴 역, 벨 할</t>
+        </is>
+      </c>
+      <c r="D1105" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr"/>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1106" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1106" t="inlineStr">
+        <is>
+          <t>13시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr"/>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>간발: 사이 간, 터럭 발: 아주 잠시 또는 아주 적음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1107" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
+          <t>13시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>蔑視</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr"/>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>멸시: 업신여길 멸, 볼 시, 업신여기거나 하찮게 여겨 깔봄</t>
+        </is>
+      </c>
+      <c r="D1108" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
+          <t>13시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>灌注</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr"/>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>관주: 물댈 괄, 부을 주, 물이 흘러 들어감</t>
+        </is>
+      </c>
+      <c r="D1109" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1109" t="inlineStr">
+        <is>
+          <t>13시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr"/>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1110" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1110" t="inlineStr">
+        <is>
+          <t>13시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr"/>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>간발: 사이 간, 터럭 발: 아주 잠시 또는 아주 적음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1111" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1111" t="inlineStr">
+        <is>
+          <t>13시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>蔑視</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr"/>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>멸시: 업신여길 멸, 볼 시, 업신여기거나 하찮게 여겨 깔봄</t>
+        </is>
+      </c>
+      <c r="D1112" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1112" t="inlineStr">
+        <is>
+          <t>13시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr"/>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D1113" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1113" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>동정서벌</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>東征西罰</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>東征西伐: (동녘 동, 칠 정, 서녘 서, 칠 벌): 동쪽을 정복하고 서쪽을 친다는 뜻으로, 이리저리로 여러 나라를 정벌함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1114" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1114" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>狂奔</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr"/>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>광분: (미칠 광, 달릴 분)어떤 목적을 이루기 위하여 미친 듯이 날뜀</t>
+        </is>
+      </c>
+      <c r="D1115" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1115" t="inlineStr">
+        <is>
+          <t>13시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr"/>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>간발: 사이 간, 터럭 발: 아주 잠시 또는 아주 적음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1116" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1116" t="inlineStr">
+        <is>
+          <t>13시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>蔑視</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr"/>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>멸시: 업신여길 멸, 볼 시, 업신여기거나 하찮게 여겨 깔봄</t>
+        </is>
+      </c>
+      <c r="D1117" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E1117" t="inlineStr">
+        <is>
+          <t>13시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr"/>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>간발: 사이 간, 터럭 발: 아주 잠시 또는 아주 적음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1118" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1118" t="inlineStr">
+        <is>
+          <t>10시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr"/>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D1119" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1119" t="inlineStr">
+        <is>
+          <t>10시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>동정서벌</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>東征西罰</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>東征西伐: (동녘 동, 칠 정, 서녘 서, 칠 벌): 동쪽을 정복하고 서쪽을 친다는 뜻으로, 이리저리로 여러 나라를 정벌함을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1120" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1120" t="inlineStr">
+        <is>
+          <t>10시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>부활</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>역할: 부릴 역, 벨 할</t>
+        </is>
+      </c>
+      <c r="D1121" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1121" t="inlineStr">
+        <is>
+          <t>10시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr"/>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1122" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1122" t="inlineStr">
+        <is>
+          <t>10시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>狂奔</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr"/>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>광분: (미칠 광, 달릴 분)어떤 목적을 이루기 위하여 미친 듯이 날뜀</t>
+        </is>
+      </c>
+      <c r="D1123" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1123" t="inlineStr">
+        <is>
+          <t>10시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>견지</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>간발: 사이 간, 터럭 발: 아주 잠시 또는 아주 적음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1124" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1124" t="inlineStr">
+        <is>
+          <t>10시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D1125" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>10시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr"/>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1126" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>11시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>順坦</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr"/>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>순탄: 순할 순, 탄할 탄/너그러울 탄, 삶 따위가 아무 탈 없이 순조롭다</t>
+        </is>
+      </c>
+      <c r="D1127" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>11시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>劣惡</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr"/>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>열악: (못할 열, 악할 악), 품질이나 능력, 시설 따위가 매우 떨어지고 나쁨</t>
+        </is>
+      </c>
+      <c r="D1128" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>11시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>劣惡</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr"/>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>열악: (못할 열, 악할 악), 품질이나 능력, 시설 따위가 매우 떨어지고 나쁨</t>
+        </is>
+      </c>
+      <c r="D1129" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>發覺</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>발견</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>발각: 發 필 발/ 覺 깨달을 각, 숨기던 것이 드러남</t>
+        </is>
+      </c>
+      <c r="D1130" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>간발</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>규율: (법 규, 법칙 율): 질서나 제도를 유지하기 위하여 정하여 놓은, 행동의 준칙이 되는 본보기</t>
+        </is>
+      </c>
+      <c r="D1131" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1131" t="inlineStr">
+        <is>
+          <t>11시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>俗臭</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr"/>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>속취: 풍속 속, 냄새 취, 1. 세속의 더러운 냄새 2. 돈이나 헛된 명예에 집착하는 천한 기풍</t>
+        </is>
+      </c>
+      <c r="D1132" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>11시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>俗臭</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr"/>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>속취: 풍속 속, 냄새 취, 1. 세속의 더러운 냄새 2. 돈이나 헛된 명예에 집착하는 천한 기풍</t>
+        </is>
+      </c>
+      <c r="D1133" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t>11시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>精製</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr"/>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>정제: 정성을 들여 정밀하게 잘 만듦</t>
+        </is>
+      </c>
+      <c r="D1134" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1134" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>荊棘</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr"/>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>형극: 가시나무 형, 가시 극</t>
+        </is>
+      </c>
+      <c r="D1135" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>常套</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr"/>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="D1136" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1136" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>荊棘</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr"/>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>형극: 가시나무 형, 가시 극</t>
+        </is>
+      </c>
+      <c r="D1137" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>11시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>精製</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>창제</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>정제: 정성을 들여 정밀하게 잘 만듦</t>
+        </is>
+      </c>
+      <c r="D1138" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1138" t="inlineStr">
+        <is>
+          <t>11시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>荊棘</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>형극: 가시나무 형, 가시 극</t>
+        </is>
+      </c>
+      <c r="D1139" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>11시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>灌注</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>괄주</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>관주: 물댈 괄, 부을 주, 물이 흘러 들어감</t>
+        </is>
+      </c>
+      <c r="D1140" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1140" t="inlineStr">
+        <is>
+          <t>11시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>敎條</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr"/>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>교조: (가르칠 교, 가지 조), 역사적 환경이나 구체적 현실과 관계없이 어떠한 상황에서도 절대로 변하지 않는 진리인 듯 믿고 따르는 것</t>
+        </is>
+      </c>
+      <c r="D1141" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>堆積</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr"/>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>퇴적: 쌓을 퇴, 쌓을 적</t>
+        </is>
+      </c>
+      <c r="D1142" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>開拓</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>개척: 열 개, 넓힐 척</t>
+        </is>
+      </c>
+      <c r="D1143" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1143" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>未達</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>매진</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>미달: 아닐 미, 통달할 달</t>
+        </is>
+      </c>
+      <c r="D1144" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>膏肓</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr"/>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>고황: 기름 고, 명치끝 황</t>
+        </is>
+      </c>
+      <c r="D1145" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>未達</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>미담</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>미달: 아닐 미, 통달할 달</t>
+        </is>
+      </c>
+      <c r="D1146" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1146" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>街談巷說</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>곡복사신</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>가담항설: 
+1)길거리나 세상 사람들 사이에 떠도는 이야기
+2)세상에 떠도는 뜬 소문</t>
+        </is>
+      </c>
+      <c r="D1147" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1147" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>눈동자가 기쁨으로 充溢하다</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>충만</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>충일: 충일하다(充溢--), 가득 차서 넘치다</t>
+        </is>
+      </c>
+      <c r="D1148" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>難澁</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>난삽: 어려울 난, 떫을 삽, 글이나 말이 매끄럽지 못하면서 어렵고 까다롭다</t>
+        </is>
+      </c>
+      <c r="D1149" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1149" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>投棄</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>투기</t>
+        </is>
+      </c>
+      <c r="D1150" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr"/>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D1151" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>投棄</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>활집</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>투기</t>
+        </is>
+      </c>
+      <c r="D1152" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>投棄</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>투기</t>
+        </is>
+      </c>
+      <c r="D1153" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1153" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr"/>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D1154" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>宏闊</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr"/>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>굉활: (클 굉, 넓을 활)사방으로 두루 넓음</t>
+        </is>
+      </c>
+      <c r="D1155" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>酷使</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr"/>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="D1156" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>周旋</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr"/>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>주선: 두루 주, 돌 선</t>
+        </is>
+      </c>
+      <c r="D1157" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>計理</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr"/>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>계리: 計 셀 계 理 다스릴 리, 계산하여 정리함</t>
+        </is>
+      </c>
+      <c r="D1158" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1158" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>收益</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>수송</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>수익: 거둘 수, 더할 익</t>
+        </is>
+      </c>
+      <c r="D1159" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>看做</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>간호</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>간주</t>
+        </is>
+      </c>
+      <c r="D1160" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr"/>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D1161" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr"/>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D1162" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>階梯</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr"/>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>계제: 어떤 일을 할 수 있게 된 형편이나 기회</t>
+        </is>
+      </c>
+      <c r="D1163" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1163" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>齷齪</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr"/>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>악착: 악착할 악, 악착할 착, 일을 해 나가는 태도가 모질고 끈덕짐</t>
+        </is>
+      </c>
+      <c r="D1164" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1164" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>주의:
+㉠ 굳게 지키는 주장이나 방침
+㉡ 체계화된 이론이나 학설</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>主意</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>主義: (임금 주, 옳을 의)</t>
+        </is>
+      </c>
+      <c r="D1165" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>委棄하다：내버려두다</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr"/>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>위기: 委棄(맡길 위, 버릴 기)버리고 돌보지 않음 (소유권 양도의 의사표시)</t>
+        </is>
+      </c>
+      <c r="D1166" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>齷齪</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr"/>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>악착: 악착할 악, 악착할 착, 일을 해 나가는 태도가 모질고 끈덕짐</t>
+        </is>
+      </c>
+      <c r="D1167" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1167" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr"/>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D1168" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1168" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>階梯</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr"/>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>계제: 어떤 일을 할 수 있게 된 형편이나 기회</t>
+        </is>
+      </c>
+      <c r="D1169" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>曲盡</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>곡절</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>곡진: 곡진하다, 1. 매우 정성스럽다. 2. 매우 자세하고 간곡하다</t>
+        </is>
+      </c>
+      <c r="D1170" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>推戴</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr"/>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>추대: (밀 추, 일 대): 윗사람으로 떠받듦</t>
+        </is>
+      </c>
+      <c r="D1171" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>模糊性</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr"/>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>모호성: 모호(模糊), 흐리어 똑똑하지 못함</t>
+        </is>
+      </c>
+      <c r="D1172" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>困難</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>곤혹</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>곤란: 곤할 곤, 어려울 란, 사정이 몹시 딱하고 어려움</t>
+        </is>
+      </c>
+      <c r="D1173" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>未練</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>미달</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>미련</t>
+        </is>
+      </c>
+      <c r="D1174" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>部族</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>부족: 떼 부, 겨레 족</t>
+        </is>
+      </c>
+      <c r="D1175" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>部族</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr"/>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>부족: 떼 부, 겨레 족</t>
+        </is>
+      </c>
+      <c r="D1176" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>蹂躪</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>악착</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>유린: 蹂밟을 유, 躪짓밟을 린, 남의 권리나 인격을 짓밟음</t>
+        </is>
+      </c>
+      <c r="D1177" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>部族</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>부족: 떼 부, 겨레 족</t>
+        </is>
+      </c>
+      <c r="D1178" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>蹂躪</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr"/>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>유린: 蹂밟을 유, 躪짓밟을 린, 남의 권리나 인격을 짓밟음</t>
+        </is>
+      </c>
+      <c r="D1179" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1179" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>射程</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr"/>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>사정: 射 쏠 사/ 程 한도 정, 탄알, 포탄, 미사일 따위가 발사되어 도달할 수 있는 곳까지의 거리. =사정거리</t>
+        </is>
+      </c>
+      <c r="D1180" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>斷末魔(단말마): 숨이 끊어질 때의 모진 고통</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>단발마</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>단말마</t>
+        </is>
+      </c>
+      <c r="D1181" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>馥郁</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr"/>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>복욱: 향기 복, 성할 욱, 풍기는 향기가 그윽함</t>
+        </is>
+      </c>
+      <c r="D1182" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>昏困</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>곤혹</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>혼곤: 어두울 혼, 곤할 곤</t>
+        </is>
+      </c>
+      <c r="D1183" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>馥郁</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr"/>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>복욱: 향기 복, 성할 욱, 풍기는 향기가 그윽함</t>
+        </is>
+      </c>
+      <c r="D1184" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>技術</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr"/>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>기술: 재주 기, 재주 술, 만들거나 짓거나 하는 재주 또는 솜씨</t>
+        </is>
+      </c>
+      <c r="D1185" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>馥郁</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr"/>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>복욱: 향기 복, 성할 욱, 풍기는 향기가 그윽함</t>
+        </is>
+      </c>
+      <c r="D1186" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>團聚</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr"/>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>단취: 둥글 단, 모을 취, 집안 식구나 친한 사람들끼리 화목하게 한자리에 모임</t>
+        </is>
+      </c>
+      <c r="D1187" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>馥郁</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr"/>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>복욱: 향기 복, 성할 욱, 풍기는 향기가 그윽함</t>
+        </is>
+      </c>
+      <c r="D1188" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>糊塗</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr"/>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>호도: 경망스럽게 떠벌림, 명확하게 결말을 내지 않고 일시적으로 감추거나 흐지부지 덮어 버림을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1189" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>準備</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>준거</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>준비: 준할 준, 갖출 비</t>
+        </is>
+      </c>
+      <c r="D1190" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>堆積</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr"/>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>퇴적: 쌓을 퇴, 쌓을 적</t>
+        </is>
+      </c>
+      <c r="D1191" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>堆積</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr"/>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>퇴적: 쌓을 퇴, 쌓을 적</t>
+        </is>
+      </c>
+      <c r="D1192" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1192" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>糊塗</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr"/>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>호도: 경망스럽게 떠벌림, 명확하게 결말을 내지 않고 일시적으로 감추거나 흐지부지 덮어 버림을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1193" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>馥郁</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr"/>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>복욱: 향기 복, 성할 욱, 풍기는 향기가 그윽함</t>
+        </is>
+      </c>
+      <c r="D1194" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>摘出</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr"/>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>적출: 딸 적, 날 출</t>
+        </is>
+      </c>
+      <c r="D1195" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>摘出</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr"/>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>적출: 딸 적, 날 출</t>
+        </is>
+      </c>
+      <c r="D1196" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>糊塗</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr"/>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>호도: 경망스럽게 떠벌림, 명확하게 결말을 내지 않고 일시적으로 감추거나 흐지부지 덮어 버림을 비유적으로 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1197" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>馥郁</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr"/>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>복욱: 향기 복, 성할 욱, 풍기는 향기가 그윽함</t>
+        </is>
+      </c>
+      <c r="D1198" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>咸池</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>감지</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>함지: 해가 진다고 하는 서쪽의 큰 못↔ 부상(扶桑)</t>
+        </is>
+      </c>
+      <c r="D1199" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>分別</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>분열</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>분별: 나눌 분, 나눌 별</t>
+        </is>
+      </c>
+      <c r="D1200" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>異狀</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>이상, 정상이 아닌 상태</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>이상, 평소와는 다른 상태: (다를 이, 형상 상)</t>
+        </is>
+      </c>
+      <c r="D1201" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>火葬</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>화상</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>화장: 火(불 화)葬(장사지낼 장). 시체를 불에 살라 장사 지냄</t>
+        </is>
+      </c>
+      <c r="D1202" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>협주: 두 개 이상의 악기로 동시에 연주하는 일</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>協助</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>協奏: 화합할 협, 아뢸 주</t>
+        </is>
+      </c>
+      <c r="D1203" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>地厚</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr"/>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>지후: 땅 지, 두터울 후, 땅이 두터우니</t>
+        </is>
+      </c>
+      <c r="D1204" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>揭載</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr"/>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>게재: (걸 게, 실을 재), 신문(新聞)따위에 글이나 그림을 실음</t>
+        </is>
+      </c>
+      <c r="D1205" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1205" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>糠粃</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr"/>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>강비: (겨 강, 쭉정이 비)겨와 쭉정이라는 뜻으로, 거친 식사를 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1206" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1206" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>童氣</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>상기</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>동기: (아이 동, 기운 기)</t>
+        </is>
+      </c>
+      <c r="D1207" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1207" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr"/>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D1208" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1208" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>多彩性</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr"/>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>다채성: 다채(多彩), 여러 가지 색채나 형태, 종류 따위가 어울리어 호화스러움</t>
+        </is>
+      </c>
+      <c r="D1209" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1209" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>童氣</t>
+        </is>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>상기</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>동기: (아이 동, 기운 기)</t>
+        </is>
+      </c>
+      <c r="D1210" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1210" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>稀薄</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>교조</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>희박: 드물 희, 엷을 박, 어떤 일이 이루어질 가능성이 적다</t>
+        </is>
+      </c>
+      <c r="D1211" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1211" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>涉獵</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr"/>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>섭렵</t>
+        </is>
+      </c>
+      <c r="D1212" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B1213" t="inlineStr"/>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D1213" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>遊戱</t>
+        </is>
+      </c>
+      <c r="B1214" t="inlineStr"/>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>유희: 놀 유, 놀이 희, 즐겁게 놀며 장난함. 또는 그런 행위</t>
+        </is>
+      </c>
+      <c r="D1214" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B1215" t="inlineStr"/>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>알력</t>
+        </is>
+      </c>
+      <c r="D1215" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1215" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>遊戱</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr"/>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>유희: 놀 유, 놀이 희, 즐겁게 놀며 장난함. 또는 그런 행위</t>
+        </is>
+      </c>
+      <c r="D1216" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B1217" t="inlineStr"/>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D1217" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1217" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr"/>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D1218" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1218" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>浪費</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr"/>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>낭비: 물결 낭, 쓸 비, 시간이나 재물 따위를 헛되이 헤프게 씀</t>
+        </is>
+      </c>
+      <c r="D1219" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1219" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>剔抉</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>탈퇴</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>척결: 바를 척, 도려낼 결, 살을 도려내고 뼈를 발라냄. 나쁜 부분이나 요소들을 깨끗이 없애 버림</t>
+        </is>
+      </c>
+      <c r="D1220" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1220" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>浪費</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr"/>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>낭비: 물결 낭, 쓸 비, 시간이나 재물 따위를 헛되이 헤프게 씀</t>
+        </is>
+      </c>
+      <c r="D1221" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>脫退</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr"/>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>탈퇴: 벗을 탈, 물러날 퇴, 관계하고 있던 조직이나 단체 따위에서 관계를 끊고 물러남</t>
+        </is>
+      </c>
+      <c r="D1222" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>浪費</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>나입</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>낭비: 물결 낭, 쓸 비, 시간이나 재물 따위를 헛되이 헤프게 씀</t>
+        </is>
+      </c>
+      <c r="D1223" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>拔萃</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr"/>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>발췌: 책이나 글 따위에서 필요하거나 중요한 부분을 가려 뽑아냄</t>
+        </is>
+      </c>
+      <c r="D1224" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>抛棄</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>유희</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>포기</t>
+        </is>
+      </c>
+      <c r="D1225" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>11시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>사람이 타고난 기개나 마음씨. 또는 그것이 겉으로 드러난 모양</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>氣象</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>氣像: 기상, 기운 기, 모양 상</t>
+        </is>
+      </c>
+      <c r="D1226" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>11시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>설명: 어떤 일이나 대상의 내용을 상대편이 잘 알 수 있도록 밝혀 말함</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>設明</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>說明</t>
+        </is>
+      </c>
+      <c r="D1227" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>11시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>思惟</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr"/>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>사유: 思(생각 사)惟(생각할 유), 대상을 두루 생각하는 일</t>
+        </is>
+      </c>
+      <c r="D1228" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>11시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>威儀</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>함의</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>위의: 위엄이 있고 엄숙한 태도나 차림새. 예법에 맞는 몸가짐</t>
+        </is>
+      </c>
+      <c r="D1229" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>11시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>思惟</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr"/>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>사유: 思(생각 사)惟(생각할 유), 대상을 두루 생각하는 일</t>
+        </is>
+      </c>
+      <c r="D1230" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>11시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>贅言</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr"/>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>췌언: 혹 췌, 말씀 언, 쓸데없는 군더더기 말</t>
+        </is>
+      </c>
+      <c r="D1231" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1231" t="inlineStr">
+        <is>
+          <t>11시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>淵深</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr"/>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>연심: 못 연, 깊을 심, 수준이 높거나 정도가 심하다</t>
+        </is>
+      </c>
+      <c r="D1232" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>11시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>驕慢</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr"/>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>교만</t>
+        </is>
+      </c>
+      <c r="D1233" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>11시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>贅言</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr"/>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>췌언: 혹 췌, 말씀 언, 쓸데없는 군더더기 말</t>
+        </is>
+      </c>
+      <c r="D1234" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>11시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>천구 위에서 서로의 상대 위치를 바꾸지 아니하고 별자리를 구성하는 별</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>亢星</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>恒星:
+亢星(별이름 항/별 성): 이십팔수의 둘째 별자리에 있는 별들
+恒星(항상 항/星별 성): 천구 위에서 서로의 상대 위치를 바꾸지 아니하고 별자리를 구성하는 별</t>
+        </is>
+      </c>
+      <c r="D1235" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>11시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>贅言</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr"/>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>췌언: 혹 췌, 말씀 언, 쓸데없는 군더더기 말</t>
+        </is>
+      </c>
+      <c r="D1236" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1236" t="inlineStr">
+        <is>
+          <t>11시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>贅言</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr"/>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>췌언: 혹 췌, 말씀 언, 쓸데없는 군더더기 말</t>
+        </is>
+      </c>
+      <c r="D1237" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>資質</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>rhrwls</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>자질</t>
+        </is>
+      </c>
+      <c r="D1238" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>珍重</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr"/>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>진중: 진중하다, 진귀하고 소중하다</t>
+        </is>
+      </c>
+      <c r="D1239" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1239" t="inlineStr">
+        <is>
+          <t>12시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>歇價</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>온축</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>헐가: =헐값(헐가, 헐값 모두 표준어)</t>
+        </is>
+      </c>
+      <c r="D1240" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1240" t="inlineStr">
+        <is>
+          <t>12시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>토의(討議)는 최적의 해결 방안을 선택하기 위한 공동의 사고 과정이다</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>討義</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>討議</t>
+        </is>
+      </c>
+      <c r="D1241" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>12시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>歇價</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>온축</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>헐가: =헐값(헐가, 헐값 모두 표준어)</t>
+        </is>
+      </c>
+      <c r="D1242" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>破綻</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr"/>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>파탄: 깨뜨릴 파, 터질 탄</t>
+        </is>
+      </c>
+      <c r="D1243" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>遺棄</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr"/>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>유기</t>
+        </is>
+      </c>
+      <c r="D1244" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>供給</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr"/>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>공급: 이바지할 공, 줄 급, 요구나 필요에 따라 물품 따위를 제공함</t>
+        </is>
+      </c>
+      <c r="D1245" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>蔑視</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr"/>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>멸시: 업신여길 멸, 볼 시, 업신여기거나 하찮게 여겨 깔봄</t>
+        </is>
+      </c>
+      <c r="D1246" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>12시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>正直</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>정직: (바를 정, 곧을 직), 마음에 거짓이나 꾸밈이 없이 바르고 곧음</t>
+        </is>
+      </c>
+      <c r="D1247" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>12시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>破綻</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr"/>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>파탄: 깨뜨릴 파, 터질 탄</t>
+        </is>
+      </c>
+      <c r="D1248" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>膏肓</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr"/>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>고황: 기름 고, 명치끝 황</t>
+        </is>
+      </c>
+      <c r="D1249" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>使用</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr"/>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>사용: 하여금 사, 쓸 용: 일정한 목적이나 기능에 맞게 씀</t>
+        </is>
+      </c>
+      <c r="D1250" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>樣相</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr"/>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>양상: 모양 양, 서로 상</t>
+        </is>
+      </c>
+      <c r="D1251" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1251" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>破綻</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr"/>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>파탄: 깨뜨릴 파, 터질 탄</t>
+        </is>
+      </c>
+      <c r="D1252" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>간</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>간발: 사이 간, 터럭 발: 아주 잠시 또는 아주 적음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D1253" t="n">
+        <v>20230406</v>
+      </c>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>12시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>積層的</t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr"/>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>적층적: 층층이 쌓임</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>20230406</t>
+        </is>
+      </c>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>12시 44분</t>
         </is>
       </c>
     </row>
